--- a/Data/fhr_stats.xlsx
+++ b/Data/fhr_stats.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Challenges\MathAData\FetalHeartRate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DA5C4B-C756-4DA3-88FD-C96AB5494CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155D389F-6ECC-4DDF-B0B9-3F76DF039A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{75A812B7-792C-4586-905A-35E92CF714BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" activeTab="1" xr2:uid="{75A812B7-792C-4586-905A-35E92CF714BC}"/>
   </bookViews>
   <sheets>
     <sheet name="fhr_stats" sheetId="1" r:id="rId1"/>
-    <sheet name="Moyennes" sheetId="2" r:id="rId2"/>
-    <sheet name="Volatilités" sheetId="3" r:id="rId3"/>
+    <sheet name="Precision Moyenne" sheetId="5" r:id="rId2"/>
+    <sheet name="F1 Score" sheetId="4" r:id="rId3"/>
+    <sheet name="Moyennes" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Volatilités" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fhr_stats!$A$1:$Z$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fhr_stats!$A$1:$AB$301</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
   <si>
     <t>ids</t>
   </si>
@@ -149,12 +151,116 @@
   <si>
     <t>target=0</t>
   </si>
+  <si>
+    <t>sujet sain si l'étendue de l'électrocardiogramme est inférieur à un seuil.</t>
+  </si>
+  <si>
+    <t>sujet sain si la moyenne de l'électrocardiogramme est inférieur à un seuil.</t>
+  </si>
+  <si>
+    <t>sujet sain si la volatilité de l'électrocardiogramme est inférieur à un seuil.</t>
+  </si>
+  <si>
+    <t>Caractéristique</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>sujet sain si le % de points autour de la moyenne est supérieur à un seuil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>sujet sain si le % de points dans un intervalle donné est inférieur à un seuil.
+(avec ajustement à la moyenne)</t>
+  </si>
+  <si>
+    <t>sujet sain si le % de points dans un intervalle donné est supérieur à un seuil.
+(avec ajustement à la moyenne)</t>
+  </si>
+  <si>
+    <t>sujet sain si le % de points dans un intervalle donné est inférieur à un seuil.
+(sans ajustement à la moyenne)</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>sujet sain si le % de points au dessus de la moyenne de l'électrocardiogramme
+est inférieur à un seuil.</t>
+  </si>
+  <si>
+    <t>sujet sain si le % de points dans l'intervalle [k1*moyenne, (1+k2)*moyenne]
+est supérieur à un seuil.</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>sujet sain si le pourcentage de points dans l'intervalle [ 0, k]
+est inférieur à un seuil.</t>
+  </si>
+  <si>
+    <t>sujet sain si le pourcentage de points dans l'intervalle [ 0, k]
+est supérieurà un seuil.</t>
+  </si>
+  <si>
+    <t>5
+(moyenne)</t>
+  </si>
+  <si>
+    <t>7
+(volatilié)</t>
+  </si>
+  <si>
+    <t>3
+(étendue)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Précision Moyenne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(accuracy(label0)+accuracy(label1) / 2</t>
+    </r>
+  </si>
+  <si>
+    <t>sujet sain si le % de points au dessus de la moyenne
+de l'électrocardiogramme est inférieur à un seuil.</t>
+  </si>
+  <si>
+    <t>Nombre 
+d'hyperparamètres</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +403,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,8 +600,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -594,6 +722,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -639,7 +1074,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -650,6 +1085,107 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8558,7 +9094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE72969-8E22-4FF9-BCE3-82FFB11DC6EA}">
   <dimension ref="A1:AB301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -8667,7 +9203,7 @@
         <v>35</v>
       </c>
       <c r="Z1" s="4">
-        <v>16.600000000000001</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>39</v>
@@ -8744,24 +9280,24 @@
         <v>391</v>
       </c>
       <c r="W2">
-        <f>IF(D2&gt;$Z$1,1,0)</f>
+        <f t="shared" ref="W2:W65" si="0">IF(D2&gt;$Z$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X65" si="0">IF(W2=B2,1,0)</f>
+        <f t="shared" ref="X2:X65" si="1">IF(W2=B2,1,0)</f>
         <v>1</v>
       </c>
       <c r="Z2" s="5">
         <f>AVERAGE(X:X)</f>
-        <v>0.7</v>
+        <v>0.81333333333333335</v>
       </c>
       <c r="AA2" s="5">
         <f>AVERAGE(X2:X241)</f>
-        <v>0.7</v>
+        <v>0.87916666666666665</v>
       </c>
       <c r="AB2" s="5">
-        <f>AVERAGE(X242:X300)</f>
-        <v>0.69491525423728817</v>
+        <f>AVERAGE(X242:X301)</f>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -8832,12 +9368,12 @@
         <v>439</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W66" si="1">IF(D3&gt;$Z$1,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -8908,11 +9444,11 @@
         <v>1112</v>
       </c>
       <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -8984,11 +9520,11 @@
         <v>1998</v>
       </c>
       <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9060,11 +9596,11 @@
         <v>925</v>
       </c>
       <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9136,11 +9672,11 @@
         <v>2068</v>
       </c>
       <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9212,11 +9748,11 @@
         <v>399</v>
       </c>
       <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9288,11 +9824,11 @@
         <v>599</v>
       </c>
       <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9364,11 +9900,11 @@
         <v>2130</v>
       </c>
       <c r="W10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9440,11 +9976,11 @@
         <v>1161</v>
       </c>
       <c r="W11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9516,11 +10052,11 @@
         <v>1389</v>
       </c>
       <c r="W12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9592,11 +10128,11 @@
         <v>569</v>
       </c>
       <c r="W13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9668,11 +10204,11 @@
         <v>2017</v>
       </c>
       <c r="W14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9744,11 +10280,11 @@
         <v>1613</v>
       </c>
       <c r="W15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9820,11 +10356,11 @@
         <v>1708</v>
       </c>
       <c r="W16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9896,11 +10432,11 @@
         <v>267</v>
       </c>
       <c r="W17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9972,11 +10508,11 @@
         <v>477</v>
       </c>
       <c r="W18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10048,11 +10584,11 @@
         <v>1408</v>
       </c>
       <c r="W19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10124,12 +10660,12 @@
         <v>333</v>
       </c>
       <c r="W20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -10200,11 +10736,11 @@
         <v>1054</v>
       </c>
       <c r="W21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10276,11 +10812,11 @@
         <v>1854</v>
       </c>
       <c r="W22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10352,11 +10888,11 @@
         <v>761</v>
       </c>
       <c r="W23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10428,11 +10964,11 @@
         <v>104</v>
       </c>
       <c r="W24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10504,11 +11040,11 @@
         <v>2129</v>
       </c>
       <c r="W25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X25">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10580,11 +11116,11 @@
         <v>589</v>
       </c>
       <c r="W26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10656,11 +11192,11 @@
         <v>1909</v>
       </c>
       <c r="W27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10732,11 +11268,11 @@
         <v>1136</v>
       </c>
       <c r="W28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10808,11 +11344,11 @@
         <v>94</v>
       </c>
       <c r="W29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10884,12 +11420,12 @@
         <v>22</v>
       </c>
       <c r="W30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -10960,11 +11496,11 @@
         <v>113</v>
       </c>
       <c r="W31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X31">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11036,11 +11572,11 @@
         <v>614</v>
       </c>
       <c r="W32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X32">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11112,12 +11648,12 @@
         <v>1237</v>
       </c>
       <c r="W33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -11188,11 +11724,11 @@
         <v>1781</v>
       </c>
       <c r="W34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11264,11 +11800,11 @@
         <v>1336</v>
       </c>
       <c r="W35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X35">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11340,11 +11876,11 @@
         <v>1181</v>
       </c>
       <c r="W36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11416,12 +11952,12 @@
         <v>449</v>
       </c>
       <c r="W37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -11492,11 +12028,11 @@
         <v>1595</v>
       </c>
       <c r="W38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11568,11 +12104,11 @@
         <v>1770</v>
       </c>
       <c r="W39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11644,12 +12180,12 @@
         <v>995</v>
       </c>
       <c r="W40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="X40">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
@@ -11720,11 +12256,11 @@
         <v>813</v>
       </c>
       <c r="W41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11796,12 +12332,12 @@
         <v>373</v>
       </c>
       <c r="W42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="X42">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -11872,11 +12408,11 @@
         <v>1836</v>
       </c>
       <c r="W43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11948,11 +12484,11 @@
         <v>1517</v>
       </c>
       <c r="W44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12024,11 +12560,11 @@
         <v>1394</v>
       </c>
       <c r="W45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12100,11 +12636,11 @@
         <v>171</v>
       </c>
       <c r="W46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12176,11 +12712,11 @@
         <v>1473</v>
       </c>
       <c r="W47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X47">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12252,11 +12788,11 @@
         <v>2109</v>
       </c>
       <c r="W48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12328,11 +12864,11 @@
         <v>2010</v>
       </c>
       <c r="W49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12404,11 +12940,11 @@
         <v>742</v>
       </c>
       <c r="W50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X50">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12480,11 +13016,11 @@
         <v>422</v>
       </c>
       <c r="W51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X51">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12556,11 +13092,11 @@
         <v>176</v>
       </c>
       <c r="W52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X52">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12632,11 +13168,11 @@
         <v>340</v>
       </c>
       <c r="W53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X53">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12708,11 +13244,11 @@
         <v>550</v>
       </c>
       <c r="W54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X54">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12784,11 +13320,11 @@
         <v>2104</v>
       </c>
       <c r="W55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12860,11 +13396,11 @@
         <v>251</v>
       </c>
       <c r="W56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X56">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12936,11 +13472,11 @@
         <v>571</v>
       </c>
       <c r="W57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X57">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13012,11 +13548,11 @@
         <v>769</v>
       </c>
       <c r="W58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13088,11 +13624,11 @@
         <v>474</v>
       </c>
       <c r="W59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X59">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13164,11 +13700,11 @@
         <v>344</v>
       </c>
       <c r="W60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X60">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13240,11 +13776,11 @@
         <v>88</v>
       </c>
       <c r="W61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X61">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13316,11 +13852,11 @@
         <v>1644</v>
       </c>
       <c r="W62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X62">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13392,11 +13928,11 @@
         <v>618</v>
       </c>
       <c r="W63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X63">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13468,11 +14004,11 @@
         <v>230</v>
       </c>
       <c r="W64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X64">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13544,11 +14080,11 @@
         <v>214</v>
       </c>
       <c r="W65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X65">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13620,11 +14156,11 @@
         <v>2028</v>
       </c>
       <c r="W66">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="W66:W129" si="2">IF(D66&gt;$Z$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="X66">
-        <f t="shared" ref="X66:X129" si="2">IF(W66=B66,1,0)</f>
+        <f t="shared" ref="X66:X129" si="3">IF(W66=B66,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -13696,11 +14232,11 @@
         <v>303</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:W130" si="3">IF(D67&gt;$Z$1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -13772,11 +14308,11 @@
         <v>342</v>
       </c>
       <c r="W68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X68">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -13848,11 +14384,11 @@
         <v>986</v>
       </c>
       <c r="W69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X69">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -13924,11 +14460,11 @@
         <v>672</v>
       </c>
       <c r="W70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X70">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14000,11 +14536,11 @@
         <v>455</v>
       </c>
       <c r="W71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X71">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -14076,11 +14612,11 @@
         <v>1417</v>
       </c>
       <c r="W72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X72">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14152,12 +14688,12 @@
         <v>621</v>
       </c>
       <c r="W73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X73">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="X73">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -14228,11 +14764,11 @@
         <v>368</v>
       </c>
       <c r="W74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X74">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14304,11 +14840,11 @@
         <v>36</v>
       </c>
       <c r="W75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X75">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14380,11 +14916,11 @@
         <v>1653</v>
       </c>
       <c r="W76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X76">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14456,11 +14992,11 @@
         <v>2022</v>
       </c>
       <c r="W77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X77">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14532,11 +15068,11 @@
         <v>1302</v>
       </c>
       <c r="W78">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X78">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X78">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -14608,11 +15144,11 @@
         <v>1591</v>
       </c>
       <c r="W79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X79">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14684,11 +15220,11 @@
         <v>496</v>
       </c>
       <c r="W80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X80">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14760,11 +15296,11 @@
         <v>408</v>
       </c>
       <c r="W81">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X81">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -14836,11 +15372,11 @@
         <v>1843</v>
       </c>
       <c r="W82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X82">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14912,11 +15448,11 @@
         <v>1658</v>
       </c>
       <c r="W83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X83">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14988,11 +15524,11 @@
         <v>986</v>
       </c>
       <c r="W84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X84">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15064,12 +15600,12 @@
         <v>1551</v>
       </c>
       <c r="W85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X85">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="X85">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
@@ -15140,11 +15676,11 @@
         <v>1454</v>
       </c>
       <c r="W86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X86">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15216,11 +15752,11 @@
         <v>1860</v>
       </c>
       <c r="W87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X87">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15292,12 +15828,12 @@
         <v>1026</v>
       </c>
       <c r="W88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X88">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="X88">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
@@ -15368,11 +15904,11 @@
         <v>1995</v>
       </c>
       <c r="W89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X89">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X89">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15444,12 +15980,12 @@
         <v>264</v>
       </c>
       <c r="W90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X90">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="X90">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -15520,11 +16056,11 @@
         <v>251</v>
       </c>
       <c r="W91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X91">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X91">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15596,11 +16132,11 @@
         <v>1669</v>
       </c>
       <c r="W92">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X92">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X92">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -15672,11 +16208,11 @@
         <v>241</v>
       </c>
       <c r="W93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X93">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X93">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15748,11 +16284,11 @@
         <v>904</v>
       </c>
       <c r="W94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X94">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X94">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15824,11 +16360,11 @@
         <v>354</v>
       </c>
       <c r="W95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X95">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X95">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15900,11 +16436,11 @@
         <v>1991</v>
       </c>
       <c r="W96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X96">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15976,12 +16512,12 @@
         <v>2039</v>
       </c>
       <c r="W97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X97">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="X97">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
@@ -16052,12 +16588,12 @@
         <v>944</v>
       </c>
       <c r="W98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X98">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="X98">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
@@ -16128,12 +16664,12 @@
         <v>885</v>
       </c>
       <c r="W99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X99">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="X99">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
@@ -16204,11 +16740,11 @@
         <v>1413</v>
       </c>
       <c r="W100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X100">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X100">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16280,11 +16816,11 @@
         <v>71</v>
       </c>
       <c r="W101">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X101">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X101">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16356,11 +16892,11 @@
         <v>1516</v>
       </c>
       <c r="W102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X102">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X102">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16432,12 +16968,12 @@
         <v>1201</v>
       </c>
       <c r="W103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X103">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="X103">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
@@ -16508,12 +17044,12 @@
         <v>1259</v>
       </c>
       <c r="W104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X104">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="X104">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
@@ -16584,12 +17120,12 @@
         <v>1777</v>
       </c>
       <c r="W105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X105">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="X105">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
@@ -16660,11 +17196,11 @@
         <v>1484</v>
       </c>
       <c r="W106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X106">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X106">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16736,11 +17272,11 @@
         <v>352</v>
       </c>
       <c r="W107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X107">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X107">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16812,11 +17348,11 @@
         <v>900</v>
       </c>
       <c r="W108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X108">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X108">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16888,11 +17424,11 @@
         <v>504</v>
       </c>
       <c r="W109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X109">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X109">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16964,11 +17500,11 @@
         <v>192</v>
       </c>
       <c r="W110">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X110">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X110">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17040,11 +17576,11 @@
         <v>194</v>
       </c>
       <c r="W111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X111">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X111">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -17116,11 +17652,11 @@
         <v>119</v>
       </c>
       <c r="W112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X112">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -17192,11 +17728,11 @@
         <v>1426</v>
       </c>
       <c r="W113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X113">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X113">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -17268,11 +17804,11 @@
         <v>1639</v>
       </c>
       <c r="W114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X114">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X114">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -17344,11 +17880,11 @@
         <v>2064</v>
       </c>
       <c r="W115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X115">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X115">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -17420,12 +17956,12 @@
         <v>872</v>
       </c>
       <c r="W116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X116">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="X116">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
@@ -17496,11 +18032,11 @@
         <v>1213</v>
       </c>
       <c r="W117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X117">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X117">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -17572,11 +18108,11 @@
         <v>725</v>
       </c>
       <c r="W118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X118">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X118">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -17648,12 +18184,12 @@
         <v>1646</v>
       </c>
       <c r="W119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X119">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="X119">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
@@ -17724,11 +18260,11 @@
         <v>121</v>
       </c>
       <c r="W120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X120">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X120">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -17800,11 +18336,11 @@
         <v>1128</v>
       </c>
       <c r="W121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X121">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X121">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -17876,11 +18412,11 @@
         <v>322</v>
       </c>
       <c r="W122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X122">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X122">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -17952,11 +18488,11 @@
         <v>1697</v>
       </c>
       <c r="W123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X123">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X123">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -18028,11 +18564,11 @@
         <v>957</v>
       </c>
       <c r="W124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X124">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X124">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -18104,11 +18640,11 @@
         <v>862</v>
       </c>
       <c r="W125">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X125">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18180,11 +18716,11 @@
         <v>767</v>
       </c>
       <c r="W126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X126">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X126">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -18256,11 +18792,11 @@
         <v>668</v>
       </c>
       <c r="W127">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X127">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X127">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -18332,11 +18868,11 @@
         <v>1941</v>
       </c>
       <c r="W128">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X128">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X128">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -18408,11 +18944,11 @@
         <v>1088</v>
       </c>
       <c r="W129">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X129">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X129">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -18484,12 +19020,12 @@
         <v>173</v>
       </c>
       <c r="W130">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="W130:W193" si="4">IF(D130&gt;$Z$1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="X130">
-        <f t="shared" ref="X130:X193" si="4">IF(W130=B130,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="X130:X193" si="5">IF(W130=B130,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.25">
@@ -18560,12 +19096,12 @@
         <v>389</v>
       </c>
       <c r="W131">
-        <f t="shared" ref="W131:W194" si="5">IF(D131&gt;$Z$1,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="X131">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
@@ -18636,11 +19172,11 @@
         <v>783</v>
       </c>
       <c r="W132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X132">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X132">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -18712,11 +19248,11 @@
         <v>170</v>
       </c>
       <c r="W133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X133">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X133">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -18788,11 +19324,11 @@
         <v>1529</v>
       </c>
       <c r="W134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X134">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X134">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -18864,11 +19400,11 @@
         <v>226</v>
       </c>
       <c r="W135">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X135">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -18940,11 +19476,11 @@
         <v>831</v>
       </c>
       <c r="W136">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X136">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X136">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19016,11 +19552,11 @@
         <v>1857</v>
       </c>
       <c r="W137">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X137">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19092,11 +19628,11 @@
         <v>1429</v>
       </c>
       <c r="W138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X138">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X138">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19168,11 +19704,11 @@
         <v>782</v>
       </c>
       <c r="W139">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X139">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X139">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19244,11 +19780,11 @@
         <v>251</v>
       </c>
       <c r="W140">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X140">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X140">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19320,11 +19856,11 @@
         <v>1435</v>
       </c>
       <c r="W141">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X141">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19396,11 +19932,11 @@
         <v>1301</v>
       </c>
       <c r="W142">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X142">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X142">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19472,11 +20008,11 @@
         <v>293</v>
       </c>
       <c r="W143">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X143">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X143">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19548,12 +20084,12 @@
         <v>1504</v>
       </c>
       <c r="W144">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X144">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X144">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.25">
@@ -19624,12 +20160,12 @@
         <v>1518</v>
       </c>
       <c r="W145">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X145">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X145">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.25">
@@ -19700,11 +20236,11 @@
         <v>104</v>
       </c>
       <c r="W146">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X146">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X146">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19776,12 +20312,12 @@
         <v>347</v>
       </c>
       <c r="W147">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X147">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X147">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.25">
@@ -19852,11 +20388,11 @@
         <v>124</v>
       </c>
       <c r="W148">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X148">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X148">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19928,12 +20464,12 @@
         <v>895</v>
       </c>
       <c r="W149">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X149">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X149">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.25">
@@ -20004,12 +20540,12 @@
         <v>239</v>
       </c>
       <c r="W150">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X150">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X150">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.25">
@@ -20080,11 +20616,11 @@
         <v>906</v>
       </c>
       <c r="W151">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X151">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X151">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20156,11 +20692,11 @@
         <v>691</v>
       </c>
       <c r="W152">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X152">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X152">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20232,11 +20768,11 @@
         <v>1434</v>
       </c>
       <c r="W153">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X153">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20308,12 +20844,12 @@
         <v>351</v>
       </c>
       <c r="W154">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X154">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X154">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.25">
@@ -20384,11 +20920,11 @@
         <v>29</v>
       </c>
       <c r="W155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X155">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X155">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20460,12 +20996,12 @@
         <v>1321</v>
       </c>
       <c r="W156">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X156">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X156">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.25">
@@ -20536,12 +21072,12 @@
         <v>240</v>
       </c>
       <c r="W157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X157">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X157">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.25">
@@ -20612,11 +21148,11 @@
         <v>6</v>
       </c>
       <c r="W158">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X158">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20688,11 +21224,11 @@
         <v>622</v>
       </c>
       <c r="W159">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X159">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X159">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20764,11 +21300,11 @@
         <v>1032</v>
       </c>
       <c r="W160">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X160">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X160">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20840,11 +21376,11 @@
         <v>490</v>
       </c>
       <c r="W161">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X161">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X161">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20916,11 +21452,11 @@
         <v>1110</v>
       </c>
       <c r="W162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X162">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X162">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20992,11 +21528,11 @@
         <v>1953</v>
       </c>
       <c r="W163">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X163">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X163">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -21068,11 +21604,11 @@
         <v>785</v>
       </c>
       <c r="W164">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X164">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X164">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -21144,11 +21680,11 @@
         <v>913</v>
       </c>
       <c r="W165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X165">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X165">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -21220,11 +21756,11 @@
         <v>434</v>
       </c>
       <c r="W166">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X166">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X166">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -21296,11 +21832,11 @@
         <v>1066</v>
       </c>
       <c r="W167">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X167">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X167">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -21372,12 +21908,12 @@
         <v>523</v>
       </c>
       <c r="W168">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X168">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X168">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.25">
@@ -21448,11 +21984,11 @@
         <v>229</v>
       </c>
       <c r="W169">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X169">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -21524,11 +22060,11 @@
         <v>1363</v>
       </c>
       <c r="W170">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X170">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X170">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -21600,12 +22136,12 @@
         <v>1969</v>
       </c>
       <c r="W171">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X171">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X171">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.25">
@@ -21676,11 +22212,11 @@
         <v>331</v>
       </c>
       <c r="W172">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X172">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X172">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -21752,11 +22288,11 @@
         <v>1241</v>
       </c>
       <c r="W173">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X173">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -21828,11 +22364,11 @@
         <v>1616</v>
       </c>
       <c r="W174">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X174">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X174">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -21904,11 +22440,11 @@
         <v>569</v>
       </c>
       <c r="W175">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X175">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X175">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -21980,11 +22516,11 @@
         <v>1881</v>
       </c>
       <c r="W176">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X176">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X176">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22056,11 +22592,11 @@
         <v>1091</v>
       </c>
       <c r="W177">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X177">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X177">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -22132,12 +22668,12 @@
         <v>604</v>
       </c>
       <c r="W178">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X178">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X178">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.25">
@@ -22208,11 +22744,11 @@
         <v>1018</v>
       </c>
       <c r="W179">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X179">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X179">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -22284,11 +22820,11 @@
         <v>377</v>
       </c>
       <c r="W180">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X180">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X180">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -22360,11 +22896,11 @@
         <v>239</v>
       </c>
       <c r="W181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X181">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X181">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -22436,11 +22972,11 @@
         <v>194</v>
       </c>
       <c r="W182">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X182">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X182">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -22512,11 +23048,11 @@
         <v>1133</v>
       </c>
       <c r="W183">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X183">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X183">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -22588,11 +23124,11 @@
         <v>147</v>
       </c>
       <c r="W184">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X184">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X184">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -22664,11 +23200,11 @@
         <v>1040</v>
       </c>
       <c r="W185">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X185">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X185">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -22740,11 +23276,11 @@
         <v>550</v>
       </c>
       <c r="W186">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X186">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22816,11 +23352,11 @@
         <v>1880</v>
       </c>
       <c r="W187">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X187">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X187">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22892,12 +23428,12 @@
         <v>144</v>
       </c>
       <c r="W188">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X188">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X188">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.25">
@@ -22968,11 +23504,11 @@
         <v>1889</v>
       </c>
       <c r="W189">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X189">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X189">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -23044,11 +23580,11 @@
         <v>1120</v>
       </c>
       <c r="W190">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X190">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X190">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -23120,11 +23656,11 @@
         <v>497</v>
       </c>
       <c r="W191">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X191">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X191">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -23196,11 +23732,11 @@
         <v>595</v>
       </c>
       <c r="W192">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X192">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X192">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -23272,12 +23808,12 @@
         <v>428</v>
       </c>
       <c r="W193">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X193">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="X193">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.25">
@@ -23348,11 +23884,11 @@
         <v>31</v>
       </c>
       <c r="W194">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="W194:W257" si="6">IF(D194&gt;$Z$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="X194">
-        <f t="shared" ref="X194:X257" si="6">IF(W194=B194,1,0)</f>
+        <f t="shared" ref="X194:X257" si="7">IF(W194=B194,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -23424,11 +23960,11 @@
         <v>1467</v>
       </c>
       <c r="W195">
-        <f t="shared" ref="W195:W258" si="7">IF(D195&gt;$Z$1,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -23500,11 +24036,11 @@
         <v>841</v>
       </c>
       <c r="W196">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X196">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X196">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23576,11 +24112,11 @@
         <v>371</v>
       </c>
       <c r="W197">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X197">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X197">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23652,11 +24188,11 @@
         <v>334</v>
       </c>
       <c r="W198">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X198">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X198">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23728,11 +24264,11 @@
         <v>2019</v>
       </c>
       <c r="W199">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X199">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X199">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23804,11 +24340,11 @@
         <v>644</v>
       </c>
       <c r="W200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X200">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X200">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23880,12 +24416,12 @@
         <v>1976</v>
       </c>
       <c r="W201">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X201">
         <f t="shared" si="7"/>
         <v>1</v>
-      </c>
-      <c r="X201">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.25">
@@ -23956,11 +24492,11 @@
         <v>480</v>
       </c>
       <c r="W202">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X202">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X202">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24032,12 +24568,12 @@
         <v>647</v>
       </c>
       <c r="W203">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X203">
         <f t="shared" si="7"/>
         <v>1</v>
-      </c>
-      <c r="X203">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.25">
@@ -24108,12 +24644,12 @@
         <v>117</v>
       </c>
       <c r="W204">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X204">
         <f t="shared" si="7"/>
         <v>1</v>
-      </c>
-      <c r="X204">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.25">
@@ -24184,11 +24720,11 @@
         <v>732</v>
       </c>
       <c r="W205">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X205">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X205">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24260,11 +24796,11 @@
         <v>156</v>
       </c>
       <c r="W206">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X206">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X206">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24336,12 +24872,12 @@
         <v>171</v>
       </c>
       <c r="W207">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X207">
         <f t="shared" si="7"/>
         <v>1</v>
-      </c>
-      <c r="X207">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.25">
@@ -24412,11 +24948,11 @@
         <v>817</v>
       </c>
       <c r="W208">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X208">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24488,12 +25024,12 @@
         <v>1417</v>
       </c>
       <c r="W209">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X209">
         <f t="shared" si="7"/>
         <v>1</v>
-      </c>
-      <c r="X209">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.25">
@@ -24564,12 +25100,12 @@
         <v>449</v>
       </c>
       <c r="W210">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X210">
         <f t="shared" si="7"/>
         <v>1</v>
-      </c>
-      <c r="X210">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.25">
@@ -24640,11 +25176,11 @@
         <v>81</v>
       </c>
       <c r="W211">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X211">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X211">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24716,11 +25252,11 @@
         <v>231</v>
       </c>
       <c r="W212">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X212">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X212">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24792,11 +25328,11 @@
         <v>1167</v>
       </c>
       <c r="W213">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X213">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X213">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24868,11 +25404,11 @@
         <v>1384</v>
       </c>
       <c r="W214">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X214">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24944,11 +25480,11 @@
         <v>681</v>
       </c>
       <c r="W215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X215">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X215">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -25020,12 +25556,12 @@
         <v>1801</v>
       </c>
       <c r="W216">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X216">
         <f t="shared" si="7"/>
         <v>1</v>
-      </c>
-      <c r="X216">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.25">
@@ -25096,11 +25632,11 @@
         <v>1601</v>
       </c>
       <c r="W217">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X217">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X217">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -25172,11 +25708,11 @@
         <v>434</v>
       </c>
       <c r="W218">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X218">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X218">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -25248,11 +25784,11 @@
         <v>878</v>
       </c>
       <c r="W219">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X219">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -25324,11 +25860,11 @@
         <v>694</v>
       </c>
       <c r="W220">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X220">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -25400,11 +25936,11 @@
         <v>1549</v>
       </c>
       <c r="W221">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X221">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X221">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -25476,11 +26012,11 @@
         <v>32</v>
       </c>
       <c r="W222">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X222">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X222">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -25552,11 +26088,11 @@
         <v>795</v>
       </c>
       <c r="W223">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X223">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X223">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -25628,11 +26164,11 @@
         <v>1862</v>
       </c>
       <c r="W224">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X224">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X224">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -25704,11 +26240,11 @@
         <v>62</v>
       </c>
       <c r="W225">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X225">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X225">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -25780,11 +26316,11 @@
         <v>1872</v>
       </c>
       <c r="W226">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X226">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X226">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -25856,11 +26392,11 @@
         <v>519</v>
       </c>
       <c r="W227">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X227">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X227">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -25932,11 +26468,11 @@
         <v>1583</v>
       </c>
       <c r="W228">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X228">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X228">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -26008,11 +26544,11 @@
         <v>1648</v>
       </c>
       <c r="W229">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X229">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X229">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -26084,11 +26620,11 @@
         <v>1277</v>
       </c>
       <c r="W230">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X230">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X230">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -26160,11 +26696,11 @@
         <v>1014</v>
       </c>
       <c r="W231">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X231">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X231">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -26236,11 +26772,11 @@
         <v>670</v>
       </c>
       <c r="W232">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X232">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X232">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -26312,11 +26848,11 @@
         <v>862</v>
       </c>
       <c r="W233">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X233">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X233">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -26388,12 +26924,12 @@
         <v>871</v>
       </c>
       <c r="W234">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X234">
         <f t="shared" si="7"/>
         <v>1</v>
-      </c>
-      <c r="X234">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:24" x14ac:dyDescent="0.25">
@@ -26464,11 +27000,11 @@
         <v>150</v>
       </c>
       <c r="W235">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X235">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X235">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -26540,11 +27076,11 @@
         <v>390</v>
       </c>
       <c r="W236">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X236">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X236">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -26616,11 +27152,11 @@
         <v>51</v>
       </c>
       <c r="W237">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X237">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X237">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -26692,11 +27228,11 @@
         <v>630</v>
       </c>
       <c r="W238">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X238">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X238">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -26768,12 +27304,12 @@
         <v>2004</v>
       </c>
       <c r="W239">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X239">
         <f t="shared" si="7"/>
         <v>1</v>
-      </c>
-      <c r="X239">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.25">
@@ -26844,11 +27380,11 @@
         <v>1243</v>
       </c>
       <c r="W240">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X240">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -26920,11 +27456,11 @@
         <v>1679</v>
       </c>
       <c r="W241">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X241">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X241">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -26996,11 +27532,11 @@
         <v>540</v>
       </c>
       <c r="W242">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X242">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X242">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -27072,12 +27608,12 @@
         <v>106</v>
       </c>
       <c r="W243">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X243">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X243">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:24" x14ac:dyDescent="0.25">
@@ -27148,12 +27684,12 @@
         <v>1947</v>
       </c>
       <c r="W244">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X244">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X244">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:24" x14ac:dyDescent="0.25">
@@ -27224,12 +27760,12 @@
         <v>2137</v>
       </c>
       <c r="W245">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X245">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X245">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.25">
@@ -27300,11 +27836,11 @@
         <v>1187</v>
       </c>
       <c r="W246">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X246">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X246">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -27376,11 +27912,11 @@
         <v>309</v>
       </c>
       <c r="W247">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X247">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X247">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -27452,11 +27988,11 @@
         <v>1098</v>
       </c>
       <c r="W248">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X248">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X248">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -27528,11 +28064,11 @@
         <v>389</v>
       </c>
       <c r="W249">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X249">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X249">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -27604,11 +28140,11 @@
         <v>1427</v>
       </c>
       <c r="W250">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X250">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X250">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -27680,11 +28216,11 @@
         <v>1851</v>
       </c>
       <c r="W251">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X251">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X251">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -27756,11 +28292,11 @@
         <v>172</v>
       </c>
       <c r="W252">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X252">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X252">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -27832,11 +28368,11 @@
         <v>1483</v>
       </c>
       <c r="W253">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X253">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X253">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -27908,11 +28444,11 @@
         <v>506</v>
       </c>
       <c r="W254">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X254">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -27984,11 +28520,11 @@
         <v>740</v>
       </c>
       <c r="W255">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X255">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X255">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -28060,12 +28596,12 @@
         <v>911</v>
       </c>
       <c r="W256">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X256">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X256">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.25">
@@ -28136,11 +28672,11 @@
         <v>1168</v>
       </c>
       <c r="W257">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X257">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X257">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -28212,11 +28748,11 @@
         <v>1310</v>
       </c>
       <c r="W258">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="W258:W301" si="8">IF(D258&gt;$Z$1,1,0)</f>
         <v>1</v>
       </c>
       <c r="X258">
-        <f t="shared" ref="X258:X321" si="8">IF(W258=B258,1,0)</f>
+        <f t="shared" ref="X258:X321" si="9">IF(W258=B258,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -28288,12 +28824,12 @@
         <v>1508</v>
       </c>
       <c r="W259">
-        <f t="shared" ref="W259:W301" si="9">IF(D259&gt;$Z$1,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="X259">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.25">
@@ -28364,11 +28900,11 @@
         <v>1028</v>
       </c>
       <c r="W260">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X260">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X260">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -28440,11 +28976,11 @@
         <v>282</v>
       </c>
       <c r="W261">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X261">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X261">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -28516,11 +29052,11 @@
         <v>952</v>
       </c>
       <c r="W262">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X262">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X262">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -28592,11 +29128,11 @@
         <v>696</v>
       </c>
       <c r="W263">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X263">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X263">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -28668,11 +29204,11 @@
         <v>189</v>
       </c>
       <c r="W264">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X264">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -28744,12 +29280,12 @@
         <v>164</v>
       </c>
       <c r="W265">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X265">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X265">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:24" x14ac:dyDescent="0.25">
@@ -28820,12 +29356,12 @@
         <v>1895</v>
       </c>
       <c r="W266">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X266">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X266">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:24" x14ac:dyDescent="0.25">
@@ -28896,11 +29432,11 @@
         <v>424</v>
       </c>
       <c r="W267">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X267">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X267">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -28972,12 +29508,12 @@
         <v>613</v>
       </c>
       <c r="W268">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X268">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X268">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.25">
@@ -29048,11 +29584,11 @@
         <v>848</v>
       </c>
       <c r="W269">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X269">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X269">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -29124,11 +29660,11 @@
         <v>895</v>
       </c>
       <c r="W270">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X270">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X270">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -29200,11 +29736,11 @@
         <v>863</v>
       </c>
       <c r="W271">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X271">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29276,11 +29812,11 @@
         <v>1468</v>
       </c>
       <c r="W272">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X272">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X272">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -29352,11 +29888,11 @@
         <v>644</v>
       </c>
       <c r="W273">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X273">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X273">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -29428,11 +29964,11 @@
         <v>1600</v>
       </c>
       <c r="W274">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X274">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X274">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29504,11 +30040,11 @@
         <v>1648</v>
       </c>
       <c r="W275">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X275">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X275">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -29580,11 +30116,11 @@
         <v>1083</v>
       </c>
       <c r="W276">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X276">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X276">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29656,11 +30192,11 @@
         <v>792</v>
       </c>
       <c r="W277">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X277">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X277">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29732,11 +30268,11 @@
         <v>1117</v>
       </c>
       <c r="W278">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X278">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29808,11 +30344,11 @@
         <v>2011</v>
       </c>
       <c r="W279">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X279">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X279">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29884,12 +30420,12 @@
         <v>1256</v>
       </c>
       <c r="W280">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X280">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X280">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:24" x14ac:dyDescent="0.25">
@@ -29960,11 +30496,11 @@
         <v>470</v>
       </c>
       <c r="W281">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X281">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -30036,11 +30572,11 @@
         <v>916</v>
       </c>
       <c r="W282">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X282">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X282">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -30112,11 +30648,11 @@
         <v>1798</v>
       </c>
       <c r="W283">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X283">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -30188,11 +30724,11 @@
         <v>1639</v>
       </c>
       <c r="W284">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X284">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X284">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -30264,11 +30800,11 @@
         <v>2067</v>
       </c>
       <c r="W285">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X285">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X285">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -30340,11 +30876,11 @@
         <v>1050</v>
       </c>
       <c r="W286">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X286">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -30416,11 +30952,11 @@
         <v>341</v>
       </c>
       <c r="W287">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X287">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X287">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -30492,11 +31028,11 @@
         <v>547</v>
       </c>
       <c r="W288">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X288">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X288">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -30568,11 +31104,11 @@
         <v>1186</v>
       </c>
       <c r="W289">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X289">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X289">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -30644,11 +31180,11 @@
         <v>72</v>
       </c>
       <c r="W290">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X290">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X290">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -30720,11 +31256,11 @@
         <v>1591</v>
       </c>
       <c r="W291">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X291">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X291">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -30796,11 +31332,11 @@
         <v>574</v>
       </c>
       <c r="W292">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X292">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X292">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -30872,11 +31408,11 @@
         <v>778</v>
       </c>
       <c r="W293">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X293">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X293">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -30948,11 +31484,11 @@
         <v>1528</v>
       </c>
       <c r="W294">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X294">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X294">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -31024,11 +31560,11 @@
         <v>1131</v>
       </c>
       <c r="W295">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X295">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X295">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -31100,11 +31636,11 @@
         <v>163</v>
       </c>
       <c r="W296">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X296">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X296">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -31176,11 +31712,11 @@
         <v>2145</v>
       </c>
       <c r="W297">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X297">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X297">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -31252,11 +31788,11 @@
         <v>503</v>
       </c>
       <c r="W298">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X298">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X298">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -31328,11 +31864,11 @@
         <v>568</v>
       </c>
       <c r="W299">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X299">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X299">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -31404,11 +31940,11 @@
         <v>528</v>
       </c>
       <c r="W300">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X300">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X300">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -31480,17 +32016,17 @@
         <v>647</v>
       </c>
       <c r="W301">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X301">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X301">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z301" xr:uid="{4AE72969-8E22-4FF9-BCE3-82FFB11DC6EA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z301">
+  <autoFilter ref="A1:AB301" xr:uid="{4AE72969-8E22-4FF9-BCE3-82FFB11DC6EA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB301">
       <sortCondition ref="B1:B301"/>
     </sortState>
   </autoFilter>
@@ -31499,6 +32035,1215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63C614A-7386-43A6-9DD4-2AB06226689D}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8">
+        <v>5</v>
+      </c>
+      <c r="K4" s="15">
+        <v>6</v>
+      </c>
+      <c r="L4" s="15">
+        <v>7</v>
+      </c>
+      <c r="M4" s="27">
+        <v>8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9</v>
+      </c>
+      <c r="O4" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="35">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.77290999999999999</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.74170000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="36">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="str">
+        <f>E5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.71240000000000003</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.69579999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="36">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12">
+        <f>F5</f>
+        <v>0.77290999999999999</v>
+      </c>
+      <c r="E7" s="12">
+        <f>F6</f>
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.70416000000000001</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.70208000000000004</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.72909999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="36">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
+        <f>G5</f>
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="E8" s="12">
+        <f>G6</f>
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="F8" s="12" t="str">
+        <f>G7</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.6895</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.69159999999999999</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="K8" s="11">
+        <v>7.0400000000000003E-3</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.72291000000000005</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.69579999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="37">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12">
+        <f>H5</f>
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="E9" s="12">
+        <f>H6</f>
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="F9" s="12">
+        <f>H7</f>
+        <v>0.70208000000000004</v>
+      </c>
+      <c r="G9" s="12">
+        <f>H8</f>
+        <v>0.69159999999999999</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.6583</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>4</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="37">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12">
+        <f>I5</f>
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="12">
+        <f>I6</f>
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="F10" s="12">
+        <f>I7</f>
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="G10" s="12">
+        <f>I8</f>
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="H10" s="12">
+        <f>I9</f>
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.72707999999999995</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="37">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <f>J5</f>
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="E11" s="12">
+        <f>J6</f>
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="F11" s="12">
+        <f>J7</f>
+        <v>0.71875</v>
+      </c>
+      <c r="G11" s="12">
+        <f>J8</f>
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="H11" s="12">
+        <f>J9</f>
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="I11" s="12" t="str">
+        <f>J10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.57909999999999995</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.7208</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>6</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <f>K5</f>
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="E12" s="12">
+        <f>K6</f>
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="F12" s="12">
+        <f>K7</f>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="G12" s="12">
+        <f>K8</f>
+        <v>7.0400000000000003E-3</v>
+      </c>
+      <c r="H12" s="12">
+        <f>K9</f>
+        <v>0.6583</v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f>K10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f>K11</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K12" s="18">
+        <v>0.629</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="37">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <f>L5</f>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="E13" s="12">
+        <f>L6</f>
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="F13" s="12">
+        <f>L7</f>
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="G13" s="12">
+        <f>L8</f>
+        <v>0.72291000000000005</v>
+      </c>
+      <c r="H13" s="12">
+        <f>L9</f>
+        <v>0.71875</v>
+      </c>
+      <c r="I13" s="12">
+        <f>L10</f>
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="J13" s="12">
+        <f>L11</f>
+        <v>0.7208</v>
+      </c>
+      <c r="K13" s="12">
+        <f>L12</f>
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0.73329999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>8</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="36">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12">
+        <f>M5</f>
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="E14" s="12">
+        <f>M6</f>
+        <v>0.71240000000000003</v>
+      </c>
+      <c r="F14" s="12">
+        <f>M7</f>
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="G14" s="12">
+        <f>M8</f>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="H14" s="12">
+        <f>M9</f>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="I14" s="12" t="str">
+        <f>M10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f>M11</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f>M12</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L14" s="12">
+        <f>M13</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>9</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="36">
+        <v>2</v>
+      </c>
+      <c r="D15" s="12">
+        <f>N5</f>
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="E15" s="12">
+        <f>N6</f>
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="F15" s="12">
+        <f>N7</f>
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="G15" s="12">
+        <f>N8</f>
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="H15" s="12">
+        <f>N9</f>
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="I15" s="12" t="str">
+        <f>N10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f>N11</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f>N12</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L15" s="12">
+        <f>N13</f>
+        <v>0.71875</v>
+      </c>
+      <c r="M15" s="12" t="str">
+        <f>N14</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N15" s="18">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>10</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12">
+        <f>O5</f>
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="E16" s="12">
+        <f>O6</f>
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="F16" s="12">
+        <f>O7</f>
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="G16" s="12">
+        <f>O8</f>
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="H16" s="12">
+        <f>O9</f>
+        <v>0.65</v>
+      </c>
+      <c r="I16" s="12" t="str">
+        <f>O10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J16" s="12" t="str">
+        <f>O11</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f>O12</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L16" s="12">
+        <f>O13</f>
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="M16" s="12" t="str">
+        <f>O14</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N16" s="12" t="str">
+        <f>O15</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O16" s="9">
+        <v>0.62080000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25034967-0087-45F4-9CE5-3D7D9D1E0A8D}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="40"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8">
+        <v>5</v>
+      </c>
+      <c r="J4" s="15">
+        <v>6</v>
+      </c>
+      <c r="K4" s="15">
+        <v>7</v>
+      </c>
+      <c r="L4" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="12" t="str">
+        <f>D5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="12" t="str">
+        <f>E5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f>E6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.68630000000000002</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="12" t="str">
+        <f>F5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f>F6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" s="12" t="str">
+        <f>F7</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.78039999999999998</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="12" t="str">
+        <f>G5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f>G6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E9" s="12" t="str">
+        <f>G7</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F9" s="12" t="str">
+        <f>G8</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>4</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12" t="str">
+        <f>H5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D10" s="12" t="str">
+        <f>H6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E10" s="12" t="str">
+        <f>H7</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f>H8</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G10" s="12" t="str">
+        <f>H9</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.8095</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>5</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="12" t="str">
+        <f>I5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D11" s="12" t="str">
+        <f>I6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E11" s="12" t="str">
+        <f>I7</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f>I8</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G11" s="12" t="str">
+        <f>I9</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H11" s="12" t="str">
+        <f>I10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.45269999999999999</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>6</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="12" t="str">
+        <f>J5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D12" s="12" t="str">
+        <f>J6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E12" s="12" t="str">
+        <f>J7</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F12" s="12" t="str">
+        <f>J8</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G12" s="12" t="str">
+        <f>J9</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H12" s="12" t="str">
+        <f>J10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f>J11</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J12" s="18">
+        <v>0.50980000000000003</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>7</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12">
+        <f>K5</f>
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="D13" s="12">
+        <f>K6</f>
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="E13" s="12">
+        <f>K7</f>
+        <v>0.82</v>
+      </c>
+      <c r="F13" s="12">
+        <f>K8</f>
+        <v>0.78039999999999998</v>
+      </c>
+      <c r="G13" s="12">
+        <f>K9</f>
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="H13" s="12">
+        <f>K10</f>
+        <v>0.8095</v>
+      </c>
+      <c r="I13" s="12">
+        <f>K11</f>
+        <v>0.8</v>
+      </c>
+      <c r="J13" s="12">
+        <f>K12</f>
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>8</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="12" t="str">
+        <f>L5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>L6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E14" s="12" t="str">
+        <f>L7</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F14" s="12" t="str">
+        <f>L8</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G14" s="12" t="str">
+        <f>L9</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H14" s="12" t="str">
+        <f>L10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I14" s="12" t="str">
+        <f>L11</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f>L12</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f>L13</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L14" s="9">
+        <v>0.73119999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B548F6C7-9CA6-4634-B12D-1519AE214D5B}">
   <dimension ref="A3:F7"/>
   <sheetViews>
@@ -31609,11 +33354,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CBB96D-DA17-45BB-8595-6AB35B8F8AD3}">
-  <dimension ref="A3:F7"/>
+  <dimension ref="A3:F10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31712,6 +33459,24 @@
         <v>17.875739954184404</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f>GETPIVOTDATA("Volatilite full",$A$3,"targets",1)/GETPIVOTDATA("Volatilite full",$A$3,"targets",0)</f>
+        <v>1.3255169934829225</v>
+      </c>
+      <c r="C10" s="3">
+        <f>GETPIVOTDATA("Volatilite 1ere_30minutes",$A$3,"targets",1)/GETPIVOTDATA("Volatilite 1ere_30minutes",$A$3,"targets",0)</f>
+        <v>1.2153463737397188</v>
+      </c>
+      <c r="E10" s="3">
+        <f>GETPIVOTDATA("Volatilite 1ere_heure",$A$3,"targets",1)/GETPIVOTDATA("Volatilite 1ere_heure",$A$3,"targets",0)</f>
+        <v>1.2439445139940521</v>
+      </c>
+      <c r="F10" s="3">
+        <f>GETPIVOTDATA(" Volatilite derniere_heure",$A$3,"targets",1)/GETPIVOTDATA(" Volatilite derniere_heure",$A$3,"targets",0)</f>
+        <v>1.4683026167350839</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/fhr_stats.xlsx
+++ b/Data/fhr_stats.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Challenges\MathAData\FetalHeartRate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155D389F-6ECC-4DDF-B0B9-3F76DF039A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B90B2B-46E6-49D9-B399-67742F6AD45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" activeTab="1" xr2:uid="{75A812B7-792C-4586-905A-35E92CF714BC}"/>
   </bookViews>
   <sheets>
     <sheet name="fhr_stats" sheetId="1" r:id="rId1"/>
-    <sheet name="Precision Moyenne" sheetId="5" r:id="rId2"/>
-    <sheet name="F1 Score" sheetId="4" r:id="rId3"/>
+    <sheet name="Précision Moyenne" sheetId="6" r:id="rId2"/>
+    <sheet name="Précision Moyenne (old)" sheetId="5" r:id="rId3"/>
     <sheet name="Moyennes" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="Volatilités" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
   <si>
     <t>ids</t>
   </si>
@@ -155,34 +155,17 @@
     <t>sujet sain si l'étendue de l'électrocardiogramme est inférieur à un seuil.</t>
   </si>
   <si>
-    <t>sujet sain si la moyenne de l'électrocardiogramme est inférieur à un seuil.</t>
-  </si>
-  <si>
-    <t>sujet sain si la volatilité de l'électrocardiogramme est inférieur à un seuil.</t>
-  </si>
-  <si>
     <t>Caractéristique</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>sujet sain si le % de points autour de la moyenne est supérieur à un seuil.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>sujet sain si le % de points dans un intervalle donné est inférieur à un seuil.
-(avec ajustement à la moyenne)</t>
   </si>
   <si>
     <t>sujet sain si le % de points dans un intervalle donné est supérieur à un seuil.
 (avec ajustement à la moyenne)</t>
-  </si>
-  <si>
-    <t>sujet sain si le % de points dans un intervalle donné est inférieur à un seuil.
-(sans ajustement à la moyenne)</t>
   </si>
   <si>
     <t>1A</t>
@@ -191,21 +174,8 @@
     <t>1B</t>
   </si>
   <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>sujet sain si le % de points au dessus de la moyenne de l'électrocardiogramme
-est inférieur à un seuil.</t>
-  </si>
-  <si>
     <t>sujet sain si le % de points dans l'intervalle [k1*moyenne, (1+k2)*moyenne]
 est supérieur à un seuil.</t>
-  </si>
-  <si>
-    <t>F1 Score</t>
   </si>
   <si>
     <t>sujet sain si le pourcentage de points dans l'intervalle [ 0, k]
@@ -214,14 +184,6 @@
   <si>
     <t>sujet sain si le pourcentage de points dans l'intervalle [ 0, k]
 est supérieurà un seuil.</t>
-  </si>
-  <si>
-    <t>5
-(moyenne)</t>
-  </si>
-  <si>
-    <t>7
-(volatilié)</t>
   </si>
   <si>
     <t>3
@@ -252,6 +214,175 @@
     <t>Nombre 
 d'hyperparamètres</t>
   </si>
+  <si>
+    <t>5A
+(moyenne)</t>
+  </si>
+  <si>
+    <t>5B
+(médiane)</t>
+  </si>
+  <si>
+    <t>sujet sain si la moyenne de l'électrocardiogramme
+est dans l'intervalle [k1, k2].</t>
+  </si>
+  <si>
+    <t>sujet sain si la médiane de l'électrocardiogramme
+est dans l'intervalle [k1, k2].</t>
+  </si>
+  <si>
+    <t>9i</t>
+  </si>
+  <si>
+    <t>1Ai</t>
+  </si>
+  <si>
+    <t>(complément de 1A)
+sujet sain si le % de points dans un intervalle donné est inférieur à un seuil.
+(avec ajustement à la moyenne)</t>
+  </si>
+  <si>
+    <t>sujet sain si le % de points dans un intervalle donné est supérieur à un seuil.
+(sans ajustement à la moyenne)</t>
+  </si>
+  <si>
+    <t>(complément de 1B)
+sujet sain si le % de points dans un intervalle donné est inférieur à un seuil.
+(sans ajustement à la moyenne)</t>
+  </si>
+  <si>
+    <t>1Bi</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>sujet sain si le pourcentage de fois où une valeur 'k' a été passée
+est &gt; à un seuil</t>
+  </si>
+  <si>
+    <t>14A</t>
+  </si>
+  <si>
+    <t>sujet sain si le pourcentage de passage par la moyenne
+est &gt; à un seuil.</t>
+  </si>
+  <si>
+    <t>14B</t>
+  </si>
+  <si>
+    <t>sujet sain si le pourcentage de passage par la médiane
+est &gt; à un seuil.</t>
+  </si>
+  <si>
+    <t>13i</t>
+  </si>
+  <si>
+    <t>(complément de 13)
+sujet sain si le pourcentage de fois où une valeur 'k' a été passée
+est &lt; à un seuil</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>sujet sain si le % de points autour de la médiane
+est supérieur à un seuil.</t>
+  </si>
+  <si>
+    <t>écart type autour de la médiane</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>sujet sain si la volatilité de l'électrocardiogramme
+est inférieur à un seuil.</t>
+  </si>
+  <si>
+    <t>sujet sain si le % de points autour de la moyenne
+est supérieur à un seuil.</t>
+  </si>
+  <si>
+    <t>sujet sain si l'écart type autour de la médiane
+est inférieur à un seuil.</t>
+  </si>
+  <si>
+    <t>sujet sain si le nombre de passage par la médiane
+(par unité de temps) est &gt; à un seuil.</t>
+  </si>
+  <si>
+    <t>sujet sain si le nombre de passage par la moyenne
+(par unité de temps) est &gt; à un seuil.</t>
+  </si>
+  <si>
+    <t>7A
+(volatilié)</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Précision Moyenne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(accuracy(label0)+accuracy(label1) / 2
+(sur toute la durée)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Précision Moyenne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(sur la dernière heure)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Précision Moyenne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(sur la première heure)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -260,7 +391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,8 +550,89 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,6 +818,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -753,66 +971,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -910,48 +1068,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -973,33 +1090,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1024,6 +1117,115 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1074,7 +1276,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1085,99 +1287,246 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1185,6 +1534,57 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -28752,7 +29152,7 @@
         <v>1</v>
       </c>
       <c r="X258">
-        <f t="shared" ref="X258:X321" si="9">IF(W258=B258,1,0)</f>
+        <f t="shared" ref="X258:X301" si="9">IF(W258=B258,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -32035,11 +32435,542 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DF795B-1D69-4ED2-8851-D60B7C7C04E1}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="43">
+        <v>1</v>
+      </c>
+      <c r="D5" s="109">
+        <v>0.71875</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="74">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="G5" s="102">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="H5" s="100">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="I5" s="100">
+        <v>0.73329999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="88">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f>E5</f>
+        <v>x</v>
+      </c>
+      <c r="E6" s="90">
+        <v>0.7208</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="G6" s="102">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="100">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="I6" s="100">
+        <v>0.73950000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <f>F5</f>
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="E7" s="10">
+        <f>F6</f>
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="F7" s="89">
+        <v>0.71875</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="100">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="I7" s="100">
+        <v>0.75629999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="52">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <f>G5</f>
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="E8" s="10">
+        <f>G6</f>
+        <v>0.75</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f>G7</f>
+        <v>x</v>
+      </c>
+      <c r="G8" s="103">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H8" s="100">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="I8" s="100">
+        <v>0.76039999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="97">
+        <v>2</v>
+      </c>
+      <c r="D9" s="98">
+        <f>H5</f>
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="E9" s="98">
+        <f>H6</f>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="F9" s="98">
+        <f>H7</f>
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="G9" s="98">
+        <f>H8</f>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="H9" s="99">
+        <v>0.72707999999999995</v>
+      </c>
+      <c r="I9" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="101">
+        <v>2</v>
+      </c>
+      <c r="D10" s="98">
+        <f>I5</f>
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="E10" s="98">
+        <f>I6</f>
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="F10" s="98">
+        <f>I7</f>
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="G10" s="98">
+        <f>I8</f>
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="H10" s="98" t="str">
+        <f>I9</f>
+        <v>x</v>
+      </c>
+      <c r="I10" s="99">
+        <v>0.72707999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="32.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="93"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="32.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="43">
+        <v>1</v>
+      </c>
+      <c r="D19" s="89">
+        <v>0.76875000000000004</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="74">
+        <v>0.76875000000000004</v>
+      </c>
+      <c r="G19" s="84">
+        <v>0.77290000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="88">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10" t="str">
+        <f>E19</f>
+        <v>x</v>
+      </c>
+      <c r="E20" s="90">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="G20" s="84">
+        <v>0.76670000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="31">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <f>F19</f>
+        <v>0.76875000000000004</v>
+      </c>
+      <c r="E21" s="10">
+        <f>F20</f>
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="F21" s="89">
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="G21" s="84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="52">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <f>G19</f>
+        <v>0.77290000000000003</v>
+      </c>
+      <c r="E22" s="10">
+        <f>G20</f>
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f>G21</f>
+        <v>x</v>
+      </c>
+      <c r="G22" s="91">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" ht="32.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="93"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="32.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="93"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="43">
+        <v>1</v>
+      </c>
+      <c r="D28" s="89">
+        <v>0.76875000000000004</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="74">
+        <v>0.77290000000000003</v>
+      </c>
+      <c r="G28" s="84">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="88">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10" t="str">
+        <f>E28</f>
+        <v>x</v>
+      </c>
+      <c r="E29" s="90">
+        <v>0.77290000000000003</v>
+      </c>
+      <c r="F29" s="37">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="G29" s="84">
+        <v>0.77910000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="31">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10">
+        <f>F28</f>
+        <v>0.77290000000000003</v>
+      </c>
+      <c r="E30" s="10">
+        <f>F29</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F30" s="89">
+        <v>0.62909999999999999</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="52">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10">
+        <f>G28</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E31" s="10">
+        <f>G29</f>
+        <v>0.77910000000000001</v>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f>G30</f>
+        <v>x</v>
+      </c>
+      <c r="G31" s="91">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A15:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63C614A-7386-43A6-9DD4-2AB06226689D}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32047,1192 +32978,1048 @@
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="17"/>
+    <col min="6" max="6" width="9.140625" style="17"/>
+    <col min="11" max="11" width="9.140625" style="17"/>
+    <col min="12" max="12" width="9.140625" style="47"/>
+    <col min="14" max="15" width="9.140625" style="17"/>
+    <col min="19" max="19" width="9.140625" style="47"/>
+    <col min="20" max="20" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+    <row r="1" spans="1:22" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="23">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="75">
+        <v>6</v>
+      </c>
+      <c r="L4" s="11">
+        <v>7</v>
+      </c>
+      <c r="M4" s="41">
+        <v>8</v>
+      </c>
+      <c r="N4" s="23">
+        <v>9</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>13</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="80">
+        <v>3</v>
+      </c>
+      <c r="D5" s="77">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="F5" s="19">
+        <v>0.77290999999999999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="L5" s="46">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="46">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="T5" s="36">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+    </row>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="21">
         <v>3</v>
       </c>
-      <c r="I4" s="7">
-        <v>4</v>
-      </c>
-      <c r="J4" s="8">
-        <v>5</v>
-      </c>
-      <c r="K4" s="15">
-        <v>6</v>
-      </c>
-      <c r="L4" s="15">
-        <v>7</v>
-      </c>
-      <c r="M4" s="27">
-        <v>8</v>
-      </c>
-      <c r="N4" s="7">
-        <v>9</v>
-      </c>
-      <c r="O4" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="35">
-        <v>3</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.73329999999999995</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.77290999999999999</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.74170000000000003</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.71660000000000001</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0.73329999999999995</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0.74170000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="36">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="16" t="str">
         <f>E5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="18">
         <v>0.70625000000000004</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="19">
         <v>0.74170000000000003</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="19">
         <v>0.71040000000000003</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="19">
         <v>0.71450000000000002</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="19">
         <v>0.72909999999999997</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="19">
         <v>0.70409999999999995</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="19">
         <v>0.69579999999999997</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="46">
         <v>0.73329999999999995</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="19">
         <v>0.71240000000000003</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="19">
         <v>0.70625000000000004</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="19">
         <v>0.69579999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="36">
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="46">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="T6" s="58">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="1:22" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="65">
         <v>3</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="61">
         <f>F5</f>
         <v>0.77290999999999999</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="61">
         <f>F6</f>
         <v>0.74170000000000003</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="66">
         <v>0.70416000000000001</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="G7" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="62">
         <v>0.70208000000000004</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="62">
         <v>0.76449999999999996</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="62">
         <v>0.71875</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="62">
         <v>0.71250000000000002</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="67">
         <v>0.75829999999999997</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="62">
         <v>0.74170000000000003</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="62">
         <v>0.72289999999999999</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="62">
         <v>0.72909999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="36">
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="67">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="T7" s="68">
+        <v>0.7208</v>
+      </c>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62">
+        <v>0.73540000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="21">
         <v>3</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="16">
         <f>G5</f>
         <v>0.74170000000000003</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <f>G6</f>
         <v>0.71040000000000003</v>
       </c>
-      <c r="F8" s="12" t="str">
+      <c r="F8" s="16" t="str">
         <f>G7</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G8" s="9">
-        <v>0.6895</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8" s="18">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="H8" s="19">
         <v>0.69159999999999999</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="19">
         <v>0.74370000000000003</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="19">
         <v>0.67910000000000004</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="19">
         <v>7.0400000000000003E-3</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="46">
         <v>0.72291000000000005</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="19">
         <v>0.71250000000000002</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="19">
         <v>0.70830000000000004</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="19">
         <v>0.69579999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="29" t="s">
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="46">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="T8" s="58">
+        <v>0.7</v>
+      </c>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+    </row>
+    <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="37">
-        <v>2</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
         <f>H5</f>
         <v>0.71660000000000001</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <f>H6</f>
         <v>0.71450000000000002</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="16">
         <f>H7</f>
         <v>0.70208000000000004</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="16">
         <f>H8</f>
         <v>0.69159999999999999</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="18">
         <v>0.60199999999999998</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="19">
         <v>0.73540000000000005</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="19">
         <v>0.64159999999999995</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="19">
         <v>0.6583</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="46">
         <v>0.71875</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="19">
         <v>0.71199999999999997</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="19">
         <v>0.68330000000000002</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="19">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>4</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="37">
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="46">
+        <v>0.69588000000000005</v>
+      </c>
+      <c r="T9" s="58">
+        <v>0.65625</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" s="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="44">
         <v>2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="45">
         <f>I5</f>
         <v>0.75</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="45">
         <f>I6</f>
         <v>0.72909999999999997</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="45">
         <f>I7</f>
         <v>0.76449999999999996</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="45">
         <f>I8</f>
         <v>0.74370000000000003</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="45">
         <f>I9</f>
         <v>0.73540000000000005</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>0.72707999999999995</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="11">
+      <c r="J10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="37">
         <v>0.74790000000000001</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="37">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="M10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="37">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="T10" s="59">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+    </row>
+    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16">
         <f>J5</f>
         <v>0.73540000000000005</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="16">
         <f>J6</f>
         <v>0.70409999999999995</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="16">
         <f>J7</f>
         <v>0.71875</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="16">
         <f>J8</f>
         <v>0.67910000000000004</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="16">
         <f>J9</f>
         <v>0.64159999999999995</v>
       </c>
-      <c r="I11" s="12" t="str">
+      <c r="I11" s="16" t="str">
         <f>J10</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="18">
         <v>0.57909999999999995</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="11">
+      <c r="K11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="46">
         <v>0.7208</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="M11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="46">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="T11" s="58">
+        <v>0.66869999999999996</v>
+      </c>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>6</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="36">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="B12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16">
         <f>K5</f>
         <v>0.73540000000000005</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <f>K6</f>
         <v>0.69579999999999997</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="16">
         <f>K7</f>
         <v>0.71250000000000002</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="16">
         <f>K8</f>
         <v>7.0400000000000003E-3</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="16">
         <f>K9</f>
         <v>0.6583</v>
       </c>
-      <c r="I12" s="12" t="str">
+      <c r="I12" s="16" t="str">
         <f>K10</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="16" t="str">
         <f>K11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="38">
         <v>0.629</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="46">
         <v>0.73299999999999998</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="37">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="M12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+    </row>
+    <row r="13" spans="1:22" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="71">
+        <v>1</v>
+      </c>
+      <c r="D13" s="45">
         <f>L5</f>
         <v>0.73750000000000004</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="72">
         <f>L6</f>
         <v>0.73329999999999995</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="72">
         <f>L7</f>
         <v>0.75829999999999997</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="72">
         <f>L8</f>
         <v>0.72291000000000005</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="72">
         <f>L9</f>
         <v>0.71875</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="72">
         <f>L10</f>
         <v>0.74790000000000001</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="72">
         <f>L11</f>
         <v>0.7208</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="45">
         <f>L12</f>
         <v>0.73299999999999998</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="73">
         <v>0.71875</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="74">
         <v>0.72499999999999998</v>
       </c>
-      <c r="N13" s="11">
-        <v>0.71875</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="N13" s="46">
+        <v>0.7208</v>
+      </c>
+      <c r="O13" s="46">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="T13" s="59">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="U13" s="74">
         <v>0.73329999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="V13" s="74"/>
+    </row>
+    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>8</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="36">
+      <c r="B14" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="21">
         <v>3</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="16">
         <f>M5</f>
         <v>0.73329999999999995</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="16">
         <f>M6</f>
         <v>0.71240000000000003</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="16">
         <f>M7</f>
         <v>0.74170000000000003</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="16">
         <f>M8</f>
         <v>0.71250000000000002</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="16">
         <f>M9</f>
         <v>0.71199999999999997</v>
       </c>
-      <c r="I14" s="12" t="str">
+      <c r="I14" s="16" t="str">
         <f>M10</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J14" s="12" t="str">
+      <c r="J14" s="16" t="str">
         <f>M11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K14" s="12" t="str">
+      <c r="K14" s="16" t="str">
         <f>M12</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="45">
         <f>M13</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="38">
         <v>0.71450000000000002</v>
       </c>
-      <c r="N14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="N14" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="46">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="T14" s="58">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="1:22" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>9</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="36">
+      <c r="B15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="21">
         <v>2</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="16">
         <f>N5</f>
         <v>0.73540000000000005</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="16">
         <f>N6</f>
         <v>0.70625000000000004</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="16">
         <f>N7</f>
         <v>0.72289999999999999</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="16">
         <f>N8</f>
         <v>0.70830000000000004</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="16">
         <f>N9</f>
         <v>0.68330000000000002</v>
       </c>
-      <c r="I15" s="12" t="str">
+      <c r="I15" s="16" t="str">
         <f>N10</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J15" s="12" t="str">
+      <c r="J15" s="16" t="str">
         <f>N11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K15" s="12" t="str">
+      <c r="K15" s="16" t="str">
         <f>N12</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="45">
         <f>N13</f>
-        <v>0.71875</v>
-      </c>
-      <c r="M15" s="12" t="str">
+        <v>0.7208</v>
+      </c>
+      <c r="M15" s="16" t="str">
         <f>N14</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="38">
         <v>0.67910000000000004</v>
       </c>
-      <c r="O15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
-        <v>10</v>
-      </c>
-      <c r="B16" s="28" t="s">
+      <c r="O15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="46">
+        <v>0.72709999999999997</v>
+      </c>
+      <c r="T15" s="36">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="U15" s="19">
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="1:22" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="36">
+      <c r="B16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="21">
         <v>2</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="16">
         <f>O5</f>
         <v>0.74170000000000003</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="16">
         <f>O6</f>
         <v>0.69579999999999997</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="16">
         <f>O7</f>
         <v>0.72909999999999997</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="16">
         <f>O8</f>
         <v>0.69579999999999997</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="16">
         <f>O9</f>
         <v>0.65</v>
       </c>
-      <c r="I16" s="12" t="str">
+      <c r="I16" s="16" t="str">
         <f>O10</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J16" s="12" t="str">
+      <c r="J16" s="16" t="str">
         <f>O11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K16" s="12" t="str">
+      <c r="K16" s="16" t="str">
         <f>O12</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="45">
         <f>O13</f>
-        <v>0.73329999999999995</v>
-      </c>
-      <c r="M16" s="12" t="str">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="M16" s="16" t="str">
         <f>O14</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N16" s="12" t="str">
+      <c r="N16" s="16" t="str">
         <f>O15</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="18">
         <v>0.62080000000000002</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25034967-0087-45F4-9CE5-3D7D9D1E0A8D}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="40"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="7">
-        <v>3</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="8">
-        <v>5</v>
-      </c>
-      <c r="J4" s="15">
-        <v>6</v>
-      </c>
-      <c r="K4" s="15">
-        <v>7</v>
-      </c>
-      <c r="L4" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0.76919999999999999</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.82509999999999994</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="12" t="str">
-        <f>D5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.83540000000000003</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="12" t="str">
-        <f>E5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D7" s="12" t="str">
-        <f>E6</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.68630000000000002</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.82</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="12" t="str">
-        <f>F5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D8" s="12" t="str">
-        <f>F6</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E8" s="12" t="str">
-        <f>F7</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.65449999999999997</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0.78039999999999998</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>3</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="12" t="str">
-        <f>G5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D9" s="12" t="str">
-        <f>G6</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E9" s="12" t="str">
-        <f>G7</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F9" s="12" t="str">
-        <f>G8</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.47389999999999999</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0.77110000000000001</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>4</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="12" t="str">
-        <f>H5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D10" s="12" t="str">
-        <f>H6</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E10" s="12" t="str">
-        <f>H7</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F10" s="12" t="str">
-        <f>H8</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G10" s="12" t="str">
-        <f>H9</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.76539999999999997</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0.8095</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>5</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="12" t="str">
-        <f>I5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D11" s="12" t="str">
-        <f>I6</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E11" s="12" t="str">
-        <f>I7</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F11" s="12" t="str">
-        <f>I8</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G11" s="12" t="str">
-        <f>I9</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H11" s="12" t="str">
-        <f>I10</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I11" s="9">
-        <v>0.45269999999999999</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>6</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="12" t="str">
-        <f>J5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D12" s="12" t="str">
-        <f>J6</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E12" s="12" t="str">
-        <f>J7</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F12" s="12" t="str">
-        <f>J8</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G12" s="12" t="str">
-        <f>J9</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H12" s="12" t="str">
-        <f>J10</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I12" s="12" t="str">
-        <f>J11</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J12" s="18">
-        <v>0.50980000000000003</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0.77410000000000001</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>7</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="12">
-        <f>K5</f>
-        <v>0.82509999999999994</v>
-      </c>
-      <c r="D13" s="12">
-        <f>K6</f>
-        <v>0.83540000000000003</v>
-      </c>
-      <c r="E13" s="12">
-        <f>K7</f>
-        <v>0.82</v>
-      </c>
-      <c r="F13" s="12">
-        <f>K8</f>
-        <v>0.78039999999999998</v>
-      </c>
-      <c r="G13" s="12">
-        <f>K9</f>
-        <v>0.77110000000000001</v>
-      </c>
-      <c r="H13" s="12">
-        <f>K10</f>
-        <v>0.8095</v>
-      </c>
-      <c r="I13" s="12">
-        <f>K11</f>
-        <v>0.8</v>
-      </c>
-      <c r="J13" s="12">
-        <f>K12</f>
-        <v>0.77410000000000001</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0.77110000000000001</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
-        <v>8</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="46">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="T16" s="36"/>
+      <c r="U16" s="19">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="V16" s="19"/>
+    </row>
+    <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="12" t="str">
-        <f>L5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D14" s="12" t="str">
-        <f>L6</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E14" s="12" t="str">
-        <f>L7</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F14" s="12" t="str">
-        <f>L8</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G14" s="12" t="str">
-        <f>L9</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H14" s="12" t="str">
-        <f>L10</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I14" s="12" t="str">
-        <f>L11</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J14" s="12" t="str">
-        <f>L12</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f>L13</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L14" s="9">
-        <v>0.73119999999999996</v>
+      <c r="B17" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="17"/>
+      <c r="P17" s="18">
+        <v>0.57289999999999996</v>
+      </c>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="T17" s="58">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>13</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="21">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="22">
+        <v>0.58540000000000003</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="46">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="T18" s="58"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="21">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="22">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="S19" s="46">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="T19" s="58">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="1:22" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="50">
+        <v>1</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="73">
+        <v>0.71875</v>
+      </c>
+      <c r="T20" s="59">
+        <v>0.70209999999999995</v>
+      </c>
+      <c r="U20" s="37">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="V20" s="37">
+        <v>0.75829999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="53" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="51">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="54"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="55">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="51">
+        <v>2</v>
+      </c>
+      <c r="M22" s="17"/>
+      <c r="U22" s="8">
+        <v>0.72707999999999995</v>
+      </c>
+      <c r="V22" s="14">
+        <v>0.73960000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="51">
+        <v>1</v>
+      </c>
+      <c r="V23" s="14">
+        <v>0.7208</v>
       </c>
     </row>
   </sheetData>

--- a/Data/fhr_stats.xlsx
+++ b/Data/fhr_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Challenges\MathAData\FetalHeartRate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B90B2B-46E6-49D9-B399-67742F6AD45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B4C0F3-55B3-4D57-BA7D-045CF60DD9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" activeTab="1" xr2:uid="{75A812B7-792C-4586-905A-35E92CF714BC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
   <si>
     <t>ids</t>
   </si>
@@ -257,10 +257,6 @@
     <t>5B</t>
   </si>
   <si>
-    <t>sujet sain si le pourcentage de fois où une valeur 'k' a été passée
-est &gt; à un seuil</t>
-  </si>
-  <si>
     <t>14A</t>
   </si>
   <si>
@@ -276,11 +272,6 @@
   </si>
   <si>
     <t>13i</t>
-  </si>
-  <si>
-    <t>(complément de 13)
-sujet sain si le pourcentage de fois où une valeur 'k' a été passée
-est &lt; à un seuil</t>
   </si>
   <si>
     <t>5A</t>
@@ -299,10 +290,6 @@
     <t>7B</t>
   </si>
   <si>
-    <t>sujet sain si la volatilité de l'électrocardiogramme
-est inférieur à un seuil.</t>
-  </si>
-  <si>
     <t>sujet sain si le % de points autour de la moyenne
 est supérieur à un seuil.</t>
   </si>
@@ -317,10 +304,6 @@
   <si>
     <t>sujet sain si le nombre de passage par la moyenne
 (par unité de temps) est &gt; à un seuil.</t>
-  </si>
-  <si>
-    <t>7A
-(volatilié)</t>
   </si>
   <si>
     <t>7A</t>
@@ -350,38 +333,28 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Précision Moyenne
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(sur la dernière heure)</t>
-    </r>
+    <t>(complément de 13)
+sujet sain si le pourcentage de passage par une valeur 'k'
+est &lt; à un seuil.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Précision Moyenne
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(sur la première heure)</t>
-    </r>
+    <t>sujet sain si le pourcentage de passage par une valeur 'k' 
+est &gt; à un seuil.</t>
+  </si>
+  <si>
+    <t>sujet sain si l'écart type de l'électrocardiogramme
+est inférieur à un seuil.</t>
+  </si>
+  <si>
+    <t>7A
+(écart type)</t>
+  </si>
+  <si>
+    <t>sujet sain si le pourcentage de passage par une valeur 'k'  est &gt; à un seuil.</t>
+  </si>
+  <si>
+    <t>(complément de 13)
+sujet sain si le pourcentage de passage par une valeur 'k' est &lt; à un seuil.</t>
   </si>
 </sst>
 </file>
@@ -825,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1173,19 +1146,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -1276,7 +1236,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1389,9 +1349,6 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1499,22 +1456,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1526,46 +1471,34 @@
     <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1580,11 +1513,20 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -9495,8 +9437,8 @@
   <dimension ref="A1:AB301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32436,10 +32378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DF795B-1D69-4ED2-8851-D60B7C7C04E1}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32448,118 +32390,124 @@
     <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="93"/>
+    <row r="1" spans="1:11" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="103"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
+    <row r="2" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="83" t="s">
+      <c r="D4" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="104">
+        <v>13</v>
+      </c>
+      <c r="K4" s="104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="42">
+        <v>1</v>
+      </c>
+      <c r="D5" s="100">
+        <v>0.71875</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="73">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="G5" s="93">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="H5" s="91">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="I5" s="91">
+        <v>0.73329999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="94" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="43">
-        <v>1</v>
-      </c>
-      <c r="D5" s="109">
-        <v>0.71875</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="74">
-        <v>0.75829999999999997</v>
-      </c>
-      <c r="G5" s="102">
-        <v>0.74580000000000002</v>
-      </c>
-      <c r="H5" s="100">
-        <v>0.74790000000000001</v>
-      </c>
-      <c r="I5" s="100">
-        <v>0.73329999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="88">
+      <c r="C6" s="83">
         <v>1</v>
       </c>
       <c r="D6" s="10" t="str">
         <f>E5</f>
         <v>x</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="85">
         <v>0.7208</v>
       </c>
       <c r="F6" s="37">
         <v>0.75829999999999997</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="93">
         <v>0.75</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="91">
         <v>0.73750000000000004</v>
       </c>
-      <c r="I6" s="100">
+      <c r="I6" s="91">
         <v>0.73950000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
-        <v>66</v>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
+        <v>65</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" s="31">
         <v>1</v>
@@ -32572,27 +32520,30 @@
         <f>F6</f>
         <v>0.75829999999999997</v>
       </c>
-      <c r="F7" s="89">
+      <c r="F7" s="84">
         <v>0.71875</v>
       </c>
-      <c r="G7" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="100">
+      <c r="G7" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="91">
         <v>0.75624999999999998</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="91">
         <v>0.75629999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="52">
+      <c r="K7" s="91">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="51">
         <v>1</v>
       </c>
       <c r="D8" s="10">
@@ -32607,359 +32558,126 @@
         <f>G7</f>
         <v>x</v>
       </c>
-      <c r="G8" s="103">
+      <c r="G8" s="94">
         <v>0.65200000000000002</v>
       </c>
-      <c r="H8" s="100">
+      <c r="H8" s="91">
         <v>0.76249999999999996</v>
       </c>
-      <c r="I8" s="100">
+      <c r="I8" s="91">
         <v>0.76039999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="97">
+      <c r="K8" s="91">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="88">
         <v>2</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="89">
         <f>H5</f>
         <v>0.74790000000000001</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="89">
         <f>H6</f>
         <v>0.73750000000000004</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="89">
         <f>H7</f>
         <v>0.75624999999999998</v>
       </c>
-      <c r="G9" s="98">
+      <c r="G9" s="89">
         <f>H8</f>
         <v>0.76249999999999996</v>
       </c>
-      <c r="H9" s="99">
+      <c r="H9" s="90">
         <v>0.72707999999999995</v>
       </c>
-      <c r="I9" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="101">
+      <c r="I9" s="91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="92">
         <v>2</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="89">
         <f>I5</f>
         <v>0.73329999999999995</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="89">
         <f>I6</f>
         <v>0.73950000000000005</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="89">
         <f>I7</f>
         <v>0.75629999999999997</v>
       </c>
-      <c r="G10" s="98">
+      <c r="G10" s="89">
         <f>I8</f>
         <v>0.76039999999999996</v>
       </c>
-      <c r="H10" s="98" t="str">
+      <c r="H10" s="89" t="str">
         <f>I9</f>
         <v>x</v>
       </c>
-      <c r="I10" s="99">
+      <c r="I10" s="90">
         <v>0.72707999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="32.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="86">
+        <v>13</v>
+      </c>
+      <c r="B11" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="32.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="43">
-        <v>1</v>
-      </c>
-      <c r="D19" s="89">
-        <v>0.76875000000000004</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="74">
-        <v>0.76875000000000004</v>
-      </c>
-      <c r="G19" s="84">
-        <v>0.77290000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="88">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10" t="str">
-        <f>E19</f>
-        <v>x</v>
-      </c>
-      <c r="E20" s="90">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="G20" s="84">
-        <v>0.76670000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="31">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10">
-        <f>F19</f>
-        <v>0.76875000000000004</v>
-      </c>
-      <c r="E21" s="10">
-        <f>F20</f>
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="F21" s="89">
-        <v>0.70409999999999995</v>
-      </c>
-      <c r="G21" s="84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="52">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10">
-        <f>G19</f>
-        <v>0.77290000000000003</v>
-      </c>
-      <c r="E22" s="10">
-        <f>G20</f>
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="F22" s="10" t="str">
-        <f>G21</f>
-        <v>x</v>
-      </c>
-      <c r="G22" s="91">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:7" ht="32.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="92" t="s">
+      <c r="C11" s="92">
+        <v>2</v>
+      </c>
+      <c r="J11" s="90">
+        <v>0.58540000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" ht="32.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="43">
-        <v>1</v>
-      </c>
-      <c r="D28" s="89">
-        <v>0.76875000000000004</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="74">
-        <v>0.77290000000000003</v>
-      </c>
-      <c r="G28" s="84">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="88">
-        <v>1</v>
-      </c>
-      <c r="D29" s="10" t="str">
-        <f>E28</f>
-        <v>x</v>
-      </c>
-      <c r="E29" s="90">
-        <v>0.77290000000000003</v>
-      </c>
-      <c r="F29" s="37">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="G29" s="84">
-        <v>0.77910000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="31">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10">
-        <f>F28</f>
-        <v>0.77290000000000003</v>
-      </c>
-      <c r="E30" s="10">
-        <f>F29</f>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="F30" s="89">
-        <v>0.62909999999999999</v>
-      </c>
-      <c r="G30" s="84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="52">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10">
-        <f>G28</f>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="E31" s="10">
-        <f>G29</f>
-        <v>0.77910000000000001</v>
-      </c>
-      <c r="F31" s="10" t="str">
-        <f>G30</f>
-        <v>x</v>
-      </c>
-      <c r="G31" s="91">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="C12" s="92">
+        <v>2</v>
+      </c>
+      <c r="F12" s="89">
+        <f>K7</f>
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="G12" s="89">
+        <f>K8</f>
+        <v>0.71</v>
+      </c>
+      <c r="H12" s="89"/>
+      <c r="K12" s="90">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A24:B25"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32969,34 +32687,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63C614A-7386-43A6-9DD4-2AB06226689D}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="17"/>
     <col min="6" max="6" width="9.140625" style="17"/>
     <col min="11" max="11" width="9.140625" style="17"/>
-    <col min="12" max="12" width="9.140625" style="47"/>
+    <col min="12" max="12" width="9.140625" style="46"/>
     <col min="14" max="15" width="9.140625" style="17"/>
-    <col min="19" max="19" width="9.140625" style="47"/>
-    <col min="20" max="20" width="9.140625" style="53"/>
+    <col min="19" max="19" width="9.140625" style="46"/>
+    <col min="20" max="20" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="103"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -33010,7 +32728,7 @@
       <c r="C4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="75" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="23" t="s">
@@ -33026,12 +32744,12 @@
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="75">
+        <v>70</v>
+      </c>
+      <c r="K4" s="74">
         <v>6</v>
       </c>
       <c r="L4" s="11">
@@ -33053,32 +32771,32 @@
         <v>13</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="T4" s="57" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="T4" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="79">
         <v>3</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="76">
         <v>0.73329999999999995</v>
       </c>
       <c r="E5" s="34" t="s">
@@ -33102,7 +32820,7 @@
       <c r="K5" s="19">
         <v>0.73540000000000005</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="45">
         <v>0.73750000000000004</v>
       </c>
       <c r="M5" s="19">
@@ -33117,7 +32835,7 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
       <c r="R5" s="19"/>
-      <c r="S5" s="46">
+      <c r="S5" s="45">
         <v>0.75829999999999997</v>
       </c>
       <c r="T5" s="36">
@@ -33161,7 +32879,7 @@
       <c r="K6" s="19">
         <v>0.69579999999999997</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="45">
         <v>0.73329999999999995</v>
       </c>
       <c r="M6" s="19">
@@ -33176,74 +32894,74 @@
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
-      <c r="S6" s="46">
+      <c r="S6" s="45">
         <v>0.73750000000000004</v>
       </c>
-      <c r="T6" s="58">
+      <c r="T6" s="57">
         <v>0.71250000000000002</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+    <row r="7" spans="1:22" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="64">
         <v>3</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="60">
         <f>F5</f>
         <v>0.77290999999999999</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="60">
         <f>F6</f>
         <v>0.74170000000000003</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="65">
         <v>0.70416000000000001</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="62">
+      <c r="H7" s="61">
         <v>0.70208000000000004</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="61">
         <v>0.76449999999999996</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="61">
         <v>0.71875</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="61">
         <v>0.71250000000000002</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="66">
         <v>0.75829999999999997</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="61">
         <v>0.74170000000000003</v>
       </c>
-      <c r="N7" s="62">
+      <c r="N7" s="61">
         <v>0.72289999999999999</v>
       </c>
-      <c r="O7" s="62">
+      <c r="O7" s="61">
         <v>0.72909999999999997</v>
       </c>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="67">
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="66">
         <v>0.74160000000000004</v>
       </c>
-      <c r="T7" s="68">
+      <c r="T7" s="67">
         <v>0.7208</v>
       </c>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62">
+      <c r="U7" s="61"/>
+      <c r="V7" s="61">
         <v>0.73540000000000005</v>
       </c>
     </row>
@@ -33284,7 +33002,7 @@
       <c r="K8" s="19">
         <v>7.0400000000000003E-3</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="45">
         <v>0.72291000000000005</v>
       </c>
       <c r="M8" s="19">
@@ -33299,10 +33017,10 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
-      <c r="S8" s="46">
+      <c r="S8" s="45">
         <v>0.72289999999999999</v>
       </c>
-      <c r="T8" s="58">
+      <c r="T8" s="57">
         <v>0.7</v>
       </c>
       <c r="U8" s="9"/>
@@ -33346,7 +33064,7 @@
       <c r="K9" s="19">
         <v>0.6583</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="45">
         <v>0.71875</v>
       </c>
       <c r="M9" s="19">
@@ -33361,73 +33079,73 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="46">
+      <c r="S9" s="45">
         <v>0.69588000000000005</v>
       </c>
-      <c r="T9" s="58">
+      <c r="T9" s="57">
         <v>0.65625</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:22" s="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="44">
+    <row r="10" spans="1:22" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="43">
         <v>2</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <f>I5</f>
         <v>0.75</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <f>I6</f>
         <v>0.72909999999999997</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <f>I7</f>
         <v>0.76449999999999996</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <f>I8</f>
         <v>0.74370000000000003</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <f>I9</f>
         <v>0.73540000000000005</v>
       </c>
       <c r="I10" s="8">
         <v>0.72707999999999995</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="45" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="37">
         <v>0.74790000000000001</v>
       </c>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="46" t="s">
+      <c r="N10" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="46" t="s">
+      <c r="O10" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
       <c r="S10" s="37">
         <v>0.75409999999999999</v>
       </c>
-      <c r="T10" s="59">
+      <c r="T10" s="58">
         <v>0.76039999999999996</v>
       </c>
       <c r="U10" s="37"/>
@@ -33473,7 +33191,7 @@
       <c r="K11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="45">
         <v>0.7208</v>
       </c>
       <c r="M11" s="19" t="s">
@@ -33488,10 +33206,10 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
-      <c r="S11" s="46">
+      <c r="S11" s="45">
         <v>0.71099999999999997</v>
       </c>
-      <c r="T11" s="58">
+      <c r="T11" s="57">
         <v>0.66869999999999996</v>
       </c>
       <c r="U11" s="9"/>
@@ -33538,7 +33256,7 @@
       <c r="K12" s="38">
         <v>0.629</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="45">
         <v>0.73299999999999998</v>
       </c>
       <c r="M12" s="19" t="s">
@@ -33553,78 +33271,78 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
-      <c r="S12" s="46"/>
+      <c r="S12" s="45"/>
       <c r="T12" s="36"/>
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
     </row>
-    <row r="13" spans="1:22" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="71">
-        <v>1</v>
-      </c>
-      <c r="D13" s="45">
+        <v>86</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="70">
+        <v>1</v>
+      </c>
+      <c r="D13" s="44">
         <f>L5</f>
         <v>0.73750000000000004</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="71">
         <f>L6</f>
         <v>0.73329999999999995</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="71">
         <f>L7</f>
         <v>0.75829999999999997</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="71">
         <f>L8</f>
         <v>0.72291000000000005</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="71">
         <f>L9</f>
         <v>0.71875</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="71">
         <f>L10</f>
         <v>0.74790000000000001</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="71">
         <f>L11</f>
         <v>0.7208</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="44">
         <f>L12</f>
         <v>0.73299999999999998</v>
       </c>
-      <c r="L13" s="73">
+      <c r="L13" s="72">
         <v>0.71875</v>
       </c>
-      <c r="M13" s="74">
+      <c r="M13" s="73">
         <v>0.72499999999999998</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="45">
         <v>0.7208</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="45">
         <v>0.73540000000000005</v>
       </c>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74">
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73">
         <v>0.75829999999999997</v>
       </c>
-      <c r="T13" s="59">
+      <c r="T13" s="58">
         <v>0.74580000000000002</v>
       </c>
-      <c r="U13" s="74">
+      <c r="U13" s="73">
         <v>0.73329999999999995</v>
       </c>
-      <c r="V13" s="74"/>
+      <c r="V13" s="73"/>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
@@ -33668,7 +33386,7 @@
         <f>M12</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="44">
         <f>M13</f>
         <v>0.72499999999999998</v>
       </c>
@@ -33684,10 +33402,10 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
-      <c r="S14" s="46">
+      <c r="S14" s="45">
         <v>0.74790000000000001</v>
       </c>
-      <c r="T14" s="58">
+      <c r="T14" s="57">
         <v>0.73540000000000005</v>
       </c>
       <c r="U14" s="19"/>
@@ -33735,7 +33453,7 @@
         <f>N12</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="44">
         <f>N13</f>
         <v>0.7208</v>
       </c>
@@ -33752,7 +33470,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
-      <c r="S15" s="46">
+      <c r="S15" s="45">
         <v>0.72709999999999997</v>
       </c>
       <c r="T15" s="36">
@@ -33805,7 +33523,7 @@
         <f>O12</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="44">
         <f>O13</f>
         <v>0.73540000000000005</v>
       </c>
@@ -33823,7 +33541,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
-      <c r="S16" s="46">
+      <c r="S16" s="45">
         <v>0.71250000000000002</v>
       </c>
       <c r="T16" s="36"/>
@@ -33849,17 +33567,17 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="17"/>
-      <c r="L17" s="48"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="17"/>
       <c r="P17" s="18">
         <v>0.57289999999999996</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
-      <c r="S17" s="46">
+      <c r="S17" s="45">
         <v>0.7</v>
       </c>
-      <c r="T17" s="58">
+      <c r="T17" s="57">
         <v>0.65210000000000001</v>
       </c>
       <c r="U17" s="9"/>
@@ -33870,7 +33588,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C18" s="21">
         <v>2</v>
@@ -33882,26 +33600,26 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="17"/>
-      <c r="L18" s="48"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="22">
         <v>0.58540000000000003</v>
       </c>
       <c r="R18" s="19"/>
-      <c r="S18" s="46">
+      <c r="S18" s="45">
         <v>0.71040000000000003</v>
       </c>
-      <c r="T18" s="58"/>
+      <c r="T18" s="57"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C19" s="21">
         <v>2</v>
@@ -33913,49 +33631,49 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
-      <c r="L19" s="48"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="22">
         <v>0.67500000000000004</v>
       </c>
-      <c r="S19" s="46">
+      <c r="S19" s="45">
         <v>0.73329999999999995</v>
       </c>
-      <c r="T19" s="58">
+      <c r="T19" s="57">
         <v>0.71040000000000003</v>
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="50">
-        <v>1</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="73">
+      <c r="C20" s="49">
+        <v>1</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="72">
         <v>0.71875</v>
       </c>
-      <c r="T20" s="59">
+      <c r="T20" s="58">
         <v>0.70209999999999995</v>
       </c>
       <c r="U20" s="37">
@@ -33965,39 +33683,39 @@
         <v>0.75829999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="53" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="52" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="51">
+      <c r="C21" s="50">
         <v>1</v>
       </c>
       <c r="D21" s="17"/>
       <c r="F21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="54"/>
+      <c r="L21" s="53"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="55">
+      <c r="S21" s="53"/>
+      <c r="T21" s="54">
         <v>0.65200000000000002</v>
       </c>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56">
+      <c r="U21" s="55"/>
+      <c r="V21" s="55">
         <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="51">
+        <v>72</v>
+      </c>
+      <c r="C22" s="50">
         <v>2</v>
       </c>
       <c r="M22" s="17"/>
@@ -34010,12 +33728,12 @@
     </row>
     <row r="23" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="51">
+        <v>73</v>
+      </c>
+      <c r="C23" s="50">
         <v>1</v>
       </c>
       <c r="V23" s="14">

--- a/Data/fhr_stats.xlsx
+++ b/Data/fhr_stats.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Challenges\MathAData\FetalHeartRate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B4C0F3-55B3-4D57-BA7D-045CF60DD9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E40A513-6EE4-4191-ADD7-35341C798BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" activeTab="1" xr2:uid="{75A812B7-792C-4586-905A-35E92CF714BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" activeTab="2" xr2:uid="{75A812B7-792C-4586-905A-35E92CF714BC}"/>
   </bookViews>
   <sheets>
     <sheet name="fhr_stats" sheetId="1" r:id="rId1"/>
-    <sheet name="Précision Moyenne" sheetId="6" r:id="rId2"/>
-    <sheet name="Précision Moyenne (old)" sheetId="5" r:id="rId3"/>
-    <sheet name="Moyennes" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="Volatilités" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Erreur Moyenne (toute la durée)" sheetId="6" r:id="rId2"/>
+    <sheet name="Erreur moyenne (dernière heure)" sheetId="7" r:id="rId3"/>
+    <sheet name="Précision Moyenne (old)" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Moyennes" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Volatilités" sheetId="3" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fhr_stats!$A$1:$AB$301</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
   <si>
     <t>ids</t>
   </si>
@@ -315,24 +316,6 @@
     <t>x</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Précision Moyenne
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(accuracy(label0)+accuracy(label1) / 2
-(sur toute la durée)</t>
-    </r>
-  </si>
-  <si>
     <t>(complément de 13)
 sujet sain si le pourcentage de passage par une valeur 'k'
 est &lt; à un seuil.</t>
@@ -356,6 +339,59 @@
     <t>(complément de 13)
 sujet sain si le pourcentage de passage par une valeur 'k' est &lt; à un seuil.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Erreur Moyenne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Erreur(label0)+Erreur(label1) / 2
+(sur toute la durée)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Erreur Moyenne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Erreur(label0)+Erreur(label1) / 2
+(sur la dernière heure)</t>
+    </r>
+  </si>
+  <si>
+    <t>sujet sain si le nombre de passage par la moyenne
+en 1h est &gt; à un seuil.</t>
+  </si>
+  <si>
+    <t>sujet sain si le nombre de passage par la médiane
+en 1h est &gt; à un seuil.</t>
+  </si>
+  <si>
+    <t>(complément de 13)
+sujet sain si le nombre de de passages
+ par une valeur 'k' en 1h est &lt; à un seuil.</t>
+  </si>
+  <si>
+    <t>sujet sain si le nombre de passage 
+par une valeur 'k'  en 1h est &gt; à un seuil.</t>
+  </si>
 </sst>
 </file>
 
@@ -364,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,14 +598,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -582,24 +610,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <sz val="24"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -798,7 +810,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1155,17 +1167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1179,7 +1180,65 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1187,6 +1246,107 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1236,7 +1396,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1257,9 +1417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,9 +1504,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1462,43 +1616,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,19 +1634,125 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="34" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="34" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9437,8 +9664,8 @@
   <dimension ref="A1:AB301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A301" sqref="A301"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32380,8 +32607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DF795B-1D69-4ED2-8851-D60B7C7C04E1}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32389,290 +32616,336 @@
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="50" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="H4" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="104">
+      <c r="J4" s="129">
         <v>13</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="79" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="42">
-        <v>1</v>
-      </c>
-      <c r="D5" s="100">
-        <v>0.71875</v>
-      </c>
-      <c r="E5" s="58" t="s">
+      <c r="B5" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="122">
+        <v>1</v>
+      </c>
+      <c r="D5" s="123">
+        <f>1-71.875%</f>
+        <v>0.28125</v>
+      </c>
+      <c r="E5" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="73">
-        <v>0.75829999999999997</v>
-      </c>
-      <c r="G5" s="93">
-        <v>0.74580000000000002</v>
-      </c>
-      <c r="H5" s="91">
-        <v>0.74790000000000001</v>
-      </c>
-      <c r="I5" s="91">
-        <v>0.73329999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="F5" s="71">
+        <f>1-75.83%</f>
+        <v>0.24170000000000003</v>
+      </c>
+      <c r="G5" s="71">
+        <f>1-74.58%</f>
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="H5" s="71">
+        <f>1-74.79%</f>
+        <v>0.25209999999999999</v>
+      </c>
+      <c r="I5" s="71">
+        <f>1-73.33%</f>
+        <v>0.26670000000000005</v>
+      </c>
+      <c r="J5" s="124"/>
+      <c r="K5" s="125"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="83">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="str">
+      <c r="C6" s="105">
+        <v>1</v>
+      </c>
+      <c r="D6" s="106" t="str">
         <f>E5</f>
         <v>x</v>
       </c>
-      <c r="E6" s="85">
-        <v>0.7208</v>
-      </c>
-      <c r="F6" s="37">
-        <v>0.75829999999999997</v>
-      </c>
-      <c r="G6" s="93">
-        <v>0.75</v>
-      </c>
-      <c r="H6" s="91">
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="I6" s="91">
-        <v>0.73950000000000005</v>
-      </c>
+      <c r="E6" s="100">
+        <f>1-72.08%</f>
+        <v>0.2792</v>
+      </c>
+      <c r="F6" s="103">
+        <f>1-75.83%</f>
+        <v>0.24170000000000003</v>
+      </c>
+      <c r="G6" s="103">
+        <f>1-75%</f>
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="103">
+        <f>1-73.75%</f>
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="I6" s="103">
+        <f>1-73.95%</f>
+        <v>0.26049999999999995</v>
+      </c>
+      <c r="J6" s="104"/>
+      <c r="K6" s="109"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="31">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="105">
+        <v>1</v>
+      </c>
+      <c r="D7" s="106">
         <f>F5</f>
-        <v>0.75829999999999997</v>
-      </c>
-      <c r="E7" s="10">
+        <v>0.24170000000000003</v>
+      </c>
+      <c r="E7" s="106">
         <f>F6</f>
-        <v>0.75829999999999997</v>
-      </c>
-      <c r="F7" s="84">
-        <v>0.71875</v>
-      </c>
-      <c r="G7" s="93" t="s">
+        <v>0.24170000000000003</v>
+      </c>
+      <c r="F7" s="81">
+        <f>1-71.875%</f>
+        <v>0.28125</v>
+      </c>
+      <c r="G7" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="91">
-        <v>0.75624999999999998</v>
-      </c>
-      <c r="I7" s="91">
-        <v>0.75629999999999997</v>
-      </c>
-      <c r="K7" s="91">
-        <v>0.73299999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="H7" s="103">
+        <f>1-75.625%</f>
+        <v>0.24375000000000002</v>
+      </c>
+      <c r="I7" s="103">
+        <f>1-75.63%</f>
+        <v>0.24370000000000003</v>
+      </c>
+      <c r="J7" s="104"/>
+      <c r="K7" s="112">
+        <f>1-73.3%</f>
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="51">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="105">
+        <v>1</v>
+      </c>
+      <c r="D8" s="106">
         <f>G5</f>
-        <v>0.74580000000000002</v>
-      </c>
-      <c r="E8" s="10">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="E8" s="106">
         <f>G6</f>
-        <v>0.75</v>
-      </c>
-      <c r="F8" s="10" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="106" t="str">
         <f>G7</f>
         <v>x</v>
       </c>
-      <c r="G8" s="94">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="H8" s="91">
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="I8" s="91">
-        <v>0.76039999999999996</v>
-      </c>
-      <c r="K8" s="91">
-        <v>0.71</v>
+      <c r="G8" s="100">
+        <f>1-65.2%</f>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="H8" s="103">
+        <f>1-76.25%</f>
+        <v>0.23750000000000004</v>
+      </c>
+      <c r="I8" s="103">
+        <f>1-76.04%</f>
+        <v>0.23959999999999992</v>
+      </c>
+      <c r="J8" s="104"/>
+      <c r="K8" s="112">
+        <f>1-71%</f>
+        <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="102">
         <v>2</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D9" s="106">
         <f>H5</f>
-        <v>0.74790000000000001</v>
-      </c>
-      <c r="E9" s="89">
+        <v>0.25209999999999999</v>
+      </c>
+      <c r="E9" s="106">
         <f>H6</f>
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="F9" s="89">
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="F9" s="106">
         <f>H7</f>
-        <v>0.75624999999999998</v>
-      </c>
-      <c r="G9" s="89">
+        <v>0.24375000000000002</v>
+      </c>
+      <c r="G9" s="106">
         <f>H8</f>
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="H9" s="90">
-        <v>0.72707999999999995</v>
-      </c>
-      <c r="I9" s="91" t="s">
+        <v>0.23750000000000004</v>
+      </c>
+      <c r="H9" s="81">
+        <f>1-72.708%</f>
+        <v>0.27292000000000005</v>
+      </c>
+      <c r="I9" s="103" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="J9" s="104"/>
+      <c r="K9" s="109"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="105">
         <v>2</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="106">
         <f>I5</f>
-        <v>0.73329999999999995</v>
-      </c>
-      <c r="E10" s="89">
+        <v>0.26670000000000005</v>
+      </c>
+      <c r="E10" s="106">
         <f>I6</f>
-        <v>0.73950000000000005</v>
-      </c>
-      <c r="F10" s="89">
+        <v>0.26049999999999995</v>
+      </c>
+      <c r="F10" s="106">
         <f>I7</f>
-        <v>0.75629999999999997</v>
-      </c>
-      <c r="G10" s="89">
+        <v>0.24370000000000003</v>
+      </c>
+      <c r="G10" s="106">
         <f>I8</f>
-        <v>0.76039999999999996</v>
-      </c>
-      <c r="H10" s="89" t="str">
+        <v>0.23959999999999992</v>
+      </c>
+      <c r="H10" s="106" t="str">
         <f>I9</f>
         <v>x</v>
       </c>
-      <c r="I10" s="90">
-        <v>0.72707999999999995</v>
-      </c>
+      <c r="I10" s="81">
+        <f>1-72.708%</f>
+        <v>0.27292000000000005</v>
+      </c>
+      <c r="J10" s="104"/>
+      <c r="K10" s="109"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="86">
+      <c r="A11" s="113">
         <v>13</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="105">
+        <v>2</v>
+      </c>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="81">
+        <f>1-58.54%</f>
+        <v>0.41459999999999997</v>
+      </c>
+      <c r="K11" s="109"/>
+    </row>
+    <row r="12" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="92">
+      <c r="C12" s="116">
         <v>2</v>
       </c>
-      <c r="J11" s="90">
-        <v>0.58540000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="92">
-        <v>2</v>
-      </c>
-      <c r="F12" s="89">
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118">
         <f>K7</f>
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="G12" s="89">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G12" s="118">
         <f>K8</f>
-        <v>0.71</v>
-      </c>
-      <c r="H12" s="89"/>
-      <c r="K12" s="90">
-        <v>0.67500000000000004</v>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="H12" s="118"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="119">
+        <f>1-67.5%</f>
+        <v>0.32499999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -32680,1064 +32953,660 @@
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63C614A-7386-43A6-9DD4-2AB06226689D}">
-  <dimension ref="A1:V23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68951A2-8B06-4251-90CE-EC90402FA968}">
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17"/>
-    <col min="6" max="6" width="9.140625" style="17"/>
-    <col min="11" max="11" width="9.140625" style="17"/>
-    <col min="12" max="12" width="9.140625" style="46"/>
-    <col min="14" max="15" width="9.140625" style="17"/>
-    <col min="19" max="19" width="9.140625" style="46"/>
-    <col min="20" max="20" width="9.140625" style="52"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="50" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="1" spans="1:16" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:16" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="82">
+        <v>13</v>
+      </c>
+      <c r="K4" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="N4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="O4" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="P4" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="23">
+    </row>
+    <row r="5" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="92">
+        <v>1</v>
+      </c>
+      <c r="D5" s="93">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="94">
+        <v>0.2271</v>
+      </c>
+      <c r="G5" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="94">
+        <v>0.2104</v>
+      </c>
+      <c r="I5" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="94">
+        <v>0.2167</v>
+      </c>
+      <c r="K5" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="94">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="M5" s="94">
+        <v>0.2145</v>
+      </c>
+      <c r="N5" s="94">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="O5" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="94">
+        <v>0.22289999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="95">
+        <v>1</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="93">
+        <v>0.2271</v>
+      </c>
+      <c r="F6" s="94">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G6" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="94"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="95">
+        <v>1</v>
+      </c>
+      <c r="D7" s="94">
+        <v>0.2271</v>
+      </c>
+      <c r="E7" s="94">
+        <f>F6</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F7" s="93">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="G7" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="94">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="I7" s="94">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="J7" s="94">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="K7" s="94">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="L7" s="94">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="M7" s="94">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="N7" s="94">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="O7" s="94">
+        <v>0.221</v>
+      </c>
+      <c r="P7" s="94">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="95">
+        <v>1</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="94" t="str">
+        <f>G6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="93">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="H8" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="94">
+        <v>0.2104</v>
+      </c>
+      <c r="J8" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="97">
+        <v>2</v>
+      </c>
+      <c r="D9" s="94">
+        <v>0.2104</v>
+      </c>
+      <c r="E9" s="94" t="str">
+        <f>H6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F9" s="94">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G9" s="94" t="str">
+        <f>H8</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H9" s="93">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="I9" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="94">
+        <v>0.2167</v>
+      </c>
+      <c r="K9" s="94">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="L9" s="94">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="M9" s="94">
+        <v>0.2041</v>
+      </c>
+      <c r="N9" s="94">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="O9" s="94">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="P9" s="94">
+        <v>0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="95">
+        <v>2</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="94" t="str">
+        <f>I6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F10" s="94">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="G10" s="94">
+        <f>I8</f>
+        <v>0.2104</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="93">
+        <v>0.2104</v>
+      </c>
+      <c r="J10" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+    </row>
+    <row r="11" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="85">
+        <v>13</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="95">
+        <v>2</v>
+      </c>
+      <c r="D11" s="94">
+        <v>0.2167</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94">
+        <v>0.2167</v>
+      </c>
+      <c r="I11" s="94"/>
+      <c r="J11" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="94">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="L11" s="94">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="M11" s="94">
+        <v>0.2145</v>
+      </c>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="P11" s="94">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="95">
+        <v>2</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G12" s="94">
+        <f>K9</f>
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="H12" s="94">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="K12" s="93">
+        <v>0.35</v>
+      </c>
+      <c r="L12" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="94">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+    </row>
+    <row r="13" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="95">
+        <v>1</v>
+      </c>
+      <c r="D13" s="94">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="K13" s="94"/>
+      <c r="L13" s="93">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="M13" s="94">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="N13" s="94">
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="O13" s="94">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="P13" s="94">
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="95">
         <v>3</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="74">
-        <v>6</v>
-      </c>
-      <c r="L4" s="11">
-        <v>7</v>
-      </c>
-      <c r="M4" s="41">
-        <v>8</v>
-      </c>
-      <c r="N4" s="23">
-        <v>9</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>13</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T4" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="79">
+      <c r="D14" s="94">
+        <v>0.2145</v>
+      </c>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94">
+        <v>0.2041</v>
+      </c>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94">
+        <v>0.2145</v>
+      </c>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="M14" s="93">
+        <v>0.2208</v>
+      </c>
+      <c r="N14" s="94">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="O14" s="94">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="P14" s="94">
+        <v>0.23119999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="95">
         <v>3</v>
       </c>
-      <c r="D5" s="76">
-        <v>0.73329999999999995</v>
-      </c>
-      <c r="E5" s="34" t="s">
+      <c r="D15" s="94">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94">
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="M15" s="94">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="N15" s="93">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="O15" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="19">
-        <v>0.77290999999999999</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0.74170000000000003</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0.71660000000000001</v>
-      </c>
-      <c r="I5" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="L5" s="45">
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0.73329999999999995</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="O5" s="19">
-        <v>0.74170000000000003</v>
-      </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="45">
-        <v>0.75829999999999997</v>
-      </c>
-      <c r="T5" s="36">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-    </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="P15" s="94"/>
+    </row>
+    <row r="16" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="95">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="str">
-        <f>E5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.70625000000000004</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.74170000000000003</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.71040000000000003</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0.71450000000000002</v>
-      </c>
-      <c r="I6" s="19">
-        <v>0.72909999999999997</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0.70409999999999995</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0.69579999999999997</v>
-      </c>
-      <c r="L6" s="45">
-        <v>0.73329999999999995</v>
-      </c>
-      <c r="M6" s="19">
-        <v>0.71240000000000003</v>
-      </c>
-      <c r="N6" s="19">
-        <v>0.70625000000000004</v>
-      </c>
-      <c r="O6" s="19">
-        <v>0.69579999999999997</v>
-      </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="45">
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="T6" s="57">
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-    </row>
-    <row r="7" spans="1:22" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="64">
+      <c r="D16" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94">
+        <v>0.221</v>
+      </c>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="M16" s="94">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="N16" s="94"/>
+      <c r="O16" s="93">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="P16" s="94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="99">
         <v>3</v>
       </c>
-      <c r="D7" s="60">
-        <f>F5</f>
-        <v>0.77290999999999999</v>
-      </c>
-      <c r="E7" s="60">
-        <f>F6</f>
-        <v>0.74170000000000003</v>
-      </c>
-      <c r="F7" s="65">
-        <v>0.70416000000000001</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="61">
-        <v>0.70208000000000004</v>
-      </c>
-      <c r="I7" s="61">
-        <v>0.76449999999999996</v>
-      </c>
-      <c r="J7" s="61">
-        <v>0.71875</v>
-      </c>
-      <c r="K7" s="61">
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="L7" s="66">
-        <v>0.75829999999999997</v>
-      </c>
-      <c r="M7" s="61">
-        <v>0.74170000000000003</v>
-      </c>
-      <c r="N7" s="61">
-        <v>0.72289999999999999</v>
-      </c>
-      <c r="O7" s="61">
-        <v>0.72909999999999997</v>
-      </c>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="66">
-        <v>0.74160000000000004</v>
-      </c>
-      <c r="T7" s="67">
-        <v>0.7208</v>
-      </c>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61">
-        <v>0.73540000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="21">
-        <v>3</v>
-      </c>
-      <c r="D8" s="16">
-        <f>G5</f>
-        <v>0.74170000000000003</v>
-      </c>
-      <c r="E8" s="16">
-        <f>G6</f>
-        <v>0.71040000000000003</v>
-      </c>
-      <c r="F8" s="16" t="str">
-        <f>G7</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G8" s="18">
-        <v>0.69579999999999997</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0.69159999999999999</v>
-      </c>
-      <c r="I8" s="19">
-        <v>0.74370000000000003</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0.67910000000000004</v>
-      </c>
-      <c r="K8" s="19">
-        <v>7.0400000000000003E-3</v>
-      </c>
-      <c r="L8" s="45">
-        <v>0.72291000000000005</v>
-      </c>
-      <c r="M8" s="19">
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="N8" s="19">
-        <v>0.70830000000000004</v>
-      </c>
-      <c r="O8" s="19">
-        <v>0.69579999999999997</v>
-      </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="45">
-        <v>0.72289999999999999</v>
-      </c>
-      <c r="T8" s="57">
-        <v>0.7</v>
-      </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-    </row>
-    <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16">
-        <f>H5</f>
-        <v>0.71660000000000001</v>
-      </c>
-      <c r="E9" s="16">
-        <f>H6</f>
-        <v>0.71450000000000002</v>
-      </c>
-      <c r="F9" s="16">
-        <f>H7</f>
-        <v>0.70208000000000004</v>
-      </c>
-      <c r="G9" s="16">
-        <f>H8</f>
-        <v>0.69159999999999999</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0.64159999999999995</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0.6583</v>
-      </c>
-      <c r="L9" s="45">
-        <v>0.71875</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="N9" s="19">
-        <v>0.68330000000000002</v>
-      </c>
-      <c r="O9" s="19">
-        <v>0.65</v>
-      </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="45">
-        <v>0.69588000000000005</v>
-      </c>
-      <c r="T9" s="57">
-        <v>0.65625</v>
-      </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-    </row>
-    <row r="10" spans="1:22" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="43">
-        <v>2</v>
-      </c>
-      <c r="D10" s="44">
-        <f>I5</f>
-        <v>0.75</v>
-      </c>
-      <c r="E10" s="44">
-        <f>I6</f>
-        <v>0.72909999999999997</v>
-      </c>
-      <c r="F10" s="44">
-        <f>I7</f>
-        <v>0.76449999999999996</v>
-      </c>
-      <c r="G10" s="44">
-        <f>I8</f>
-        <v>0.74370000000000003</v>
-      </c>
-      <c r="H10" s="44">
-        <f>I9</f>
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.72707999999999995</v>
-      </c>
-      <c r="J10" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="37">
-        <v>0.74790000000000001</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="37">
-        <v>0.75409999999999999</v>
-      </c>
-      <c r="T10" s="58">
-        <v>0.76039999999999996</v>
-      </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-    </row>
-    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="15">
-        <v>2</v>
-      </c>
-      <c r="D11" s="16">
-        <f>J5</f>
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="E11" s="16">
-        <f>J6</f>
-        <v>0.70409999999999995</v>
-      </c>
-      <c r="F11" s="16">
-        <f>J7</f>
-        <v>0.71875</v>
-      </c>
-      <c r="G11" s="16">
-        <f>J8</f>
-        <v>0.67910000000000004</v>
-      </c>
-      <c r="H11" s="16">
-        <f>J9</f>
-        <v>0.64159999999999995</v>
-      </c>
-      <c r="I11" s="16" t="str">
-        <f>J10</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J11" s="18">
-        <v>0.57909999999999995</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="45">
-        <v>0.7208</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="45">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="T11" s="57">
-        <v>0.66869999999999996</v>
-      </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-    </row>
-    <row r="12" spans="1:22" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>6</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16">
-        <f>K5</f>
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="E12" s="16">
-        <f>K6</f>
-        <v>0.69579999999999997</v>
-      </c>
-      <c r="F12" s="16">
-        <f>K7</f>
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="G12" s="16">
-        <f>K8</f>
-        <v>7.0400000000000003E-3</v>
-      </c>
-      <c r="H12" s="16">
-        <f>K9</f>
-        <v>0.6583</v>
-      </c>
-      <c r="I12" s="16" t="str">
-        <f>K10</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J12" s="16" t="str">
-        <f>K11</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K12" s="38">
-        <v>0.629</v>
-      </c>
-      <c r="L12" s="45">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-    </row>
-    <row r="13" spans="1:22" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="70">
-        <v>1</v>
-      </c>
-      <c r="D13" s="44">
-        <f>L5</f>
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="E13" s="71">
-        <f>L6</f>
-        <v>0.73329999999999995</v>
-      </c>
-      <c r="F13" s="71">
-        <f>L7</f>
-        <v>0.75829999999999997</v>
-      </c>
-      <c r="G13" s="71">
-        <f>L8</f>
-        <v>0.72291000000000005</v>
-      </c>
-      <c r="H13" s="71">
-        <f>L9</f>
-        <v>0.71875</v>
-      </c>
-      <c r="I13" s="71">
-        <f>L10</f>
-        <v>0.74790000000000001</v>
-      </c>
-      <c r="J13" s="71">
-        <f>L11</f>
-        <v>0.7208</v>
-      </c>
-      <c r="K13" s="44">
-        <f>L12</f>
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="L13" s="72">
-        <v>0.71875</v>
-      </c>
-      <c r="M13" s="73">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="N13" s="45">
-        <v>0.7208</v>
-      </c>
-      <c r="O13" s="45">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73">
-        <v>0.75829999999999997</v>
-      </c>
-      <c r="T13" s="58">
-        <v>0.74580000000000002</v>
-      </c>
-      <c r="U13" s="73">
-        <v>0.73329999999999995</v>
-      </c>
-      <c r="V13" s="73"/>
-    </row>
-    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
-        <v>8</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="21">
-        <v>3</v>
-      </c>
-      <c r="D14" s="16">
-        <f>M5</f>
-        <v>0.73329999999999995</v>
-      </c>
-      <c r="E14" s="16">
-        <f>M6</f>
-        <v>0.71240000000000003</v>
-      </c>
-      <c r="F14" s="16">
-        <f>M7</f>
-        <v>0.74170000000000003</v>
-      </c>
-      <c r="G14" s="16">
-        <f>M8</f>
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="H14" s="16">
-        <f>M9</f>
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="I14" s="16" t="str">
-        <f>M10</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J14" s="16" t="str">
-        <f>M11</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K14" s="16" t="str">
-        <f>M12</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L14" s="44">
-        <f>M13</f>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="M14" s="38">
-        <v>0.71450000000000002</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="45">
-        <v>0.74790000000000001</v>
-      </c>
-      <c r="T14" s="57">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-    </row>
-    <row r="15" spans="1:22" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
-        <v>9</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="21">
-        <v>2</v>
-      </c>
-      <c r="D15" s="16">
-        <f>N5</f>
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="E15" s="16">
-        <f>N6</f>
-        <v>0.70625000000000004</v>
-      </c>
-      <c r="F15" s="16">
-        <f>N7</f>
-        <v>0.72289999999999999</v>
-      </c>
-      <c r="G15" s="16">
-        <f>N8</f>
-        <v>0.70830000000000004</v>
-      </c>
-      <c r="H15" s="16">
-        <f>N9</f>
-        <v>0.68330000000000002</v>
-      </c>
-      <c r="I15" s="16" t="str">
-        <f>N10</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J15" s="16" t="str">
-        <f>N11</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K15" s="16" t="str">
-        <f>N12</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L15" s="44">
-        <f>N13</f>
-        <v>0.7208</v>
-      </c>
-      <c r="M15" s="16" t="str">
-        <f>N14</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N15" s="38">
-        <v>0.67910000000000004</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="45">
-        <v>0.72709999999999997</v>
-      </c>
-      <c r="T15" s="36">
-        <v>0.70625000000000004</v>
-      </c>
-      <c r="U15" s="19">
-        <v>0.74370000000000003</v>
-      </c>
-      <c r="V15" s="19"/>
-    </row>
-    <row r="16" spans="1:22" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="21">
-        <v>2</v>
-      </c>
-      <c r="D16" s="16">
-        <f>O5</f>
-        <v>0.74170000000000003</v>
-      </c>
-      <c r="E16" s="16">
-        <f>O6</f>
-        <v>0.69579999999999997</v>
-      </c>
-      <c r="F16" s="16">
-        <f>O7</f>
-        <v>0.72909999999999997</v>
-      </c>
-      <c r="G16" s="16">
-        <f>O8</f>
-        <v>0.69579999999999997</v>
-      </c>
-      <c r="H16" s="16">
-        <f>O9</f>
-        <v>0.65</v>
-      </c>
-      <c r="I16" s="16" t="str">
-        <f>O10</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J16" s="16" t="str">
-        <f>O11</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K16" s="16" t="str">
-        <f>O12</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L16" s="44">
-        <f>O13</f>
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="M16" s="16" t="str">
-        <f>O14</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N16" s="16" t="str">
-        <f>O15</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O16" s="18">
-        <v>0.62080000000000002</v>
-      </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="45">
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="19">
-        <v>0.74170000000000003</v>
-      </c>
-      <c r="V16" s="19"/>
-    </row>
-    <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="15">
-        <v>2</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="17"/>
-      <c r="P17" s="18">
-        <v>0.57289999999999996</v>
-      </c>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="45">
-        <v>0.7</v>
-      </c>
-      <c r="T17" s="57">
-        <v>0.65210000000000001</v>
-      </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-    </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
-        <v>13</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="21">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="22">
-        <v>0.58540000000000003</v>
-      </c>
-      <c r="R18" s="19"/>
-      <c r="S18" s="45">
-        <v>0.71040000000000003</v>
-      </c>
-      <c r="T18" s="57"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-    </row>
-    <row r="19" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="21">
-        <v>2</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="22">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="S19" s="45">
-        <v>0.73329999999999995</v>
-      </c>
-      <c r="T19" s="57">
-        <v>0.71040000000000003</v>
-      </c>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-    </row>
-    <row r="20" spans="1:22" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="49">
-        <v>1</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="72">
-        <v>0.71875</v>
-      </c>
-      <c r="T20" s="58">
-        <v>0.70209999999999995</v>
-      </c>
-      <c r="U20" s="37">
-        <v>0.75629999999999997</v>
-      </c>
-      <c r="V20" s="37">
-        <v>0.75829999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="52" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="50">
-        <v>1</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="53"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="54">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="50">
-        <v>2</v>
-      </c>
-      <c r="M22" s="17"/>
-      <c r="U22" s="8">
-        <v>0.72707999999999995</v>
-      </c>
-      <c r="V22" s="14">
-        <v>0.73960000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="50">
-        <v>1</v>
-      </c>
-      <c r="V23" s="14">
-        <v>0.7208</v>
+      <c r="D17" s="94">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="M17" s="94">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="93">
+        <v>0.28960000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -33749,6 +33618,1071 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63C614A-7386-43A6-9DD4-2AB06226689D}">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="16"/>
+    <col min="6" max="6" width="9.140625" style="16"/>
+    <col min="11" max="11" width="9.140625" style="16"/>
+    <col min="12" max="12" width="9.140625" style="44"/>
+    <col min="14" max="15" width="9.140625" style="16"/>
+    <col min="19" max="19" width="9.140625" style="44"/>
+    <col min="20" max="20" width="9.140625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="22">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="72">
+        <v>6</v>
+      </c>
+      <c r="L4" s="10">
+        <v>7</v>
+      </c>
+      <c r="M4" s="40">
+        <v>8</v>
+      </c>
+      <c r="N4" s="22">
+        <v>9</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>13</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="77">
+        <v>3</v>
+      </c>
+      <c r="D5" s="74">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.77290999999999999</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="L5" s="43">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="43">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="T5" s="35">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+    </row>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="20">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f>E5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="L6" s="43">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0.71240000000000003</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="43">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="T6" s="55">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="1:22" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="62">
+        <v>3</v>
+      </c>
+      <c r="D7" s="58">
+        <f>F5</f>
+        <v>0.77290999999999999</v>
+      </c>
+      <c r="E7" s="58">
+        <f>F6</f>
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="F7" s="63">
+        <v>0.70416000000000001</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="59">
+        <v>0.70208000000000004</v>
+      </c>
+      <c r="I7" s="59">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="J7" s="59">
+        <v>0.71875</v>
+      </c>
+      <c r="K7" s="59">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="L7" s="64">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="M7" s="59">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="N7" s="59">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="O7" s="59">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="64">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="T7" s="65">
+        <v>0.7208</v>
+      </c>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59">
+        <v>0.73540000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="20">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15">
+        <f>G5</f>
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="E8" s="15">
+        <f>G6</f>
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="F8" s="15" t="str">
+        <f>G7</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.69159999999999999</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="K8" s="18">
+        <v>7.0400000000000003E-3</v>
+      </c>
+      <c r="L8" s="43">
+        <v>0.72291000000000005</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="O8" s="18">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="43">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="T8" s="55">
+        <v>0.7</v>
+      </c>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+    </row>
+    <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <f>H5</f>
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="E9" s="15">
+        <f>H6</f>
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="F9" s="15">
+        <f>H7</f>
+        <v>0.70208000000000004</v>
+      </c>
+      <c r="G9" s="15">
+        <f>H8</f>
+        <v>0.69159999999999999</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.6583</v>
+      </c>
+      <c r="L9" s="43">
+        <v>0.71875</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="43">
+        <v>0.69588000000000005</v>
+      </c>
+      <c r="T9" s="55">
+        <v>0.65625</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" s="44" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="41">
+        <v>2</v>
+      </c>
+      <c r="D10" s="42">
+        <f>I5</f>
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="42">
+        <f>I6</f>
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="F10" s="42">
+        <f>I7</f>
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="G10" s="42">
+        <f>I8</f>
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="H10" s="42">
+        <f>I9</f>
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.72707999999999995</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="36">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="36">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="T10" s="56">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+    </row>
+    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15">
+        <f>J5</f>
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="E11" s="15">
+        <f>J6</f>
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="F11" s="15">
+        <f>J7</f>
+        <v>0.71875</v>
+      </c>
+      <c r="G11" s="15">
+        <f>J8</f>
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="H11" s="15">
+        <f>J9</f>
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="I11" s="15" t="str">
+        <f>J10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J11" s="17">
+        <v>0.57909999999999995</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="43">
+        <v>0.7208</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="43">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="T11" s="55">
+        <v>0.66869999999999996</v>
+      </c>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>6</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <f>K5</f>
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="E12" s="15">
+        <f>K6</f>
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="F12" s="15">
+        <f>K7</f>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="G12" s="15">
+        <f>K8</f>
+        <v>7.0400000000000003E-3</v>
+      </c>
+      <c r="H12" s="15">
+        <f>K9</f>
+        <v>0.6583</v>
+      </c>
+      <c r="I12" s="15" t="str">
+        <f>K10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J12" s="15" t="str">
+        <f>K11</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K12" s="37">
+        <v>0.629</v>
+      </c>
+      <c r="L12" s="43">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="68">
+        <v>1</v>
+      </c>
+      <c r="D13" s="42">
+        <f>L5</f>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="E13" s="69">
+        <f>L6</f>
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="F13" s="69">
+        <f>L7</f>
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="G13" s="69">
+        <f>L8</f>
+        <v>0.72291000000000005</v>
+      </c>
+      <c r="H13" s="69">
+        <f>L9</f>
+        <v>0.71875</v>
+      </c>
+      <c r="I13" s="69">
+        <f>L10</f>
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="J13" s="69">
+        <f>L11</f>
+        <v>0.7208</v>
+      </c>
+      <c r="K13" s="42">
+        <f>L12</f>
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="L13" s="70">
+        <v>0.71875</v>
+      </c>
+      <c r="M13" s="71">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="N13" s="43">
+        <v>0.7208</v>
+      </c>
+      <c r="O13" s="43">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="T13" s="56">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="U13" s="71">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="V13" s="71"/>
+    </row>
+    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>8</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="20">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15">
+        <f>M5</f>
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="E14" s="15">
+        <f>M6</f>
+        <v>0.71240000000000003</v>
+      </c>
+      <c r="F14" s="15">
+        <f>M7</f>
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="G14" s="15">
+        <f>M8</f>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="H14" s="15">
+        <f>M9</f>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="I14" s="15" t="str">
+        <f>M10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J14" s="15" t="str">
+        <f>M11</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K14" s="15" t="str">
+        <f>M12</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L14" s="42">
+        <f>M13</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="M14" s="37">
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="43">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="T14" s="55">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="1:22" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>9</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="20">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15">
+        <f>N5</f>
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="E15" s="15">
+        <f>N6</f>
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="F15" s="15">
+        <f>N7</f>
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="G15" s="15">
+        <f>N8</f>
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="H15" s="15">
+        <f>N9</f>
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="I15" s="15" t="str">
+        <f>N10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J15" s="15" t="str">
+        <f>N11</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K15" s="15" t="str">
+        <f>N12</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L15" s="42">
+        <f>N13</f>
+        <v>0.7208</v>
+      </c>
+      <c r="M15" s="15" t="str">
+        <f>N14</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N15" s="37">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="43">
+        <v>0.72709999999999997</v>
+      </c>
+      <c r="T15" s="35">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="U15" s="18">
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="V15" s="18"/>
+    </row>
+    <row r="16" spans="1:22" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="20">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15">
+        <f>O5</f>
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="E16" s="15">
+        <f>O6</f>
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="F16" s="15">
+        <f>O7</f>
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="G16" s="15">
+        <f>O8</f>
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="H16" s="15">
+        <f>O9</f>
+        <v>0.65</v>
+      </c>
+      <c r="I16" s="15" t="str">
+        <f>O10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J16" s="15" t="str">
+        <f>O11</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K16" s="15" t="str">
+        <f>O12</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L16" s="42">
+        <f>O13</f>
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="M16" s="15" t="str">
+        <f>O14</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N16" s="15" t="str">
+        <f>O15</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O16" s="17">
+        <v>0.62080000000000002</v>
+      </c>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="43">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="T16" s="35"/>
+      <c r="U16" s="18">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="16"/>
+      <c r="P17" s="17">
+        <v>0.57289999999999996</v>
+      </c>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="T17" s="55">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>13</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="20">
+        <v>2</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="21">
+        <v>0.58540000000000003</v>
+      </c>
+      <c r="R18" s="18"/>
+      <c r="S18" s="43">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="T18" s="55"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="20">
+        <v>2</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="21">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="S19" s="43">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="T19" s="55">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="1:22" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="47">
+        <v>1</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="70">
+        <v>0.71875</v>
+      </c>
+      <c r="T20" s="56">
+        <v>0.70209999999999995</v>
+      </c>
+      <c r="U20" s="36">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="V20" s="36">
+        <v>0.75829999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="50" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="48">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="51"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="52">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="48">
+        <v>2</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="U22" s="8">
+        <v>0.72707999999999995</v>
+      </c>
+      <c r="V22" s="13">
+        <v>0.73960000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="48">
+        <v>1</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0.7208</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B548F6C7-9CA6-4634-B12D-1519AE214D5B}">
   <dimension ref="A3:F7"/>
   <sheetViews>
@@ -33859,7 +34793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CBB96D-DA17-45BB-8595-6AB35B8F8AD3}">
   <dimension ref="A3:F10"/>
   <sheetViews>
